--- a/analisis/resultados/argentina/costos_ccnn.xlsx
+++ b/analisis/resultados/argentina/costos_ccnn.xlsx
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="C78">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="D78">
         <v>5046670.212952</v>
       </c>
       <c r="E78">
-        <v>29513992.212952</v>
+        <v>29511476.292952</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="C79">
-        <v>24467322</v>
+        <v>24464806.08</v>
       </c>
       <c r="D79">
         <v>5046670.212952</v>
       </c>
       <c r="E79">
-        <v>29513992.212952</v>
+        <v>29511476.292952</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C82">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="D82">
         <v>5667611.541928</v>
       </c>
       <c r="E82">
-        <v>34166695.341928</v>
+        <v>34169211.261928</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3458,13 +3458,13 @@
         </is>
       </c>
       <c r="C83">
-        <v>28499083.8</v>
+        <v>28501599.72</v>
       </c>
       <c r="D83">
         <v>5667611.541928</v>
       </c>
       <c r="E83">
-        <v>34166695.341928</v>
+        <v>34169211.261928</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3498,13 +3498,13 @@
         </is>
       </c>
       <c r="C84">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="D84">
         <v>5971994.546328</v>
       </c>
       <c r="E84">
-        <v>35546634.146328</v>
+        <v>35544118.226328</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3538,13 +3538,13 @@
         </is>
       </c>
       <c r="C85">
-        <v>29574639.6</v>
+        <v>29572123.68</v>
       </c>
       <c r="D85">
         <v>5971994.546328</v>
       </c>
       <c r="E85">
-        <v>35546634.146328</v>
+        <v>35544118.226328</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3578,13 +3578,13 @@
         </is>
       </c>
       <c r="C86">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="D86">
         <v>6440744.373104</v>
       </c>
       <c r="E86">
-        <v>36946274.373104</v>
+        <v>36945016.413104</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3618,13 +3618,13 @@
         </is>
       </c>
       <c r="C87">
-        <v>30505530</v>
+        <v>30504272.04</v>
       </c>
       <c r="D87">
         <v>6440744.373104</v>
       </c>
       <c r="E87">
-        <v>36946274.373104</v>
+        <v>36945016.413104</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="D88">
         <v>6982546.120936</v>
       </c>
       <c r="E88">
-        <v>37997549.920936</v>
+        <v>37994405.020936</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3698,13 +3698,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>31015003.8</v>
+        <v>31011858.9</v>
       </c>
       <c r="D89">
         <v>6982546.120936</v>
       </c>
       <c r="E89">
-        <v>37997549.920936</v>
+        <v>37994405.020936</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3738,13 +3738,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="D90">
         <v>8607951.364432</v>
       </c>
       <c r="E90">
-        <v>42560291.764432</v>
+        <v>42559662.78443199</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="C91">
-        <v>33952340.4</v>
+        <v>33951711.41999999</v>
       </c>
       <c r="D91">
         <v>8607951.364432</v>
       </c>
       <c r="E91">
-        <v>42560291.764432</v>
+        <v>42559662.78443199</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="D92">
         <v>10062902.125464</v>
       </c>
       <c r="E92">
-        <v>45719778.325464</v>
+        <v>45719149.345464</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>35656876.2</v>
+        <v>35656247.22</v>
       </c>
       <c r="D93">
         <v>10062902.125464</v>
       </c>
       <c r="E93">
-        <v>45719778.325464</v>
+        <v>45719149.345464</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3898,13 +3898,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="D94">
         <v>13100644.509376</v>
       </c>
       <c r="E94">
-        <v>57676457.10937599</v>
+        <v>57678973.02937599</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3938,13 +3938,13 @@
         </is>
       </c>
       <c r="C95">
-        <v>44575812.59999999</v>
+        <v>44578328.52</v>
       </c>
       <c r="D95">
         <v>13100644.509376</v>
       </c>
       <c r="E95">
-        <v>57676457.10937599</v>
+        <v>57678973.02937599</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3978,13 +3978,13 @@
         </is>
       </c>
       <c r="C96">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="D96">
         <v>21757297.154512</v>
       </c>
       <c r="E96">
-        <v>85617636.55451199</v>
+        <v>85617108.211312</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C97">
-        <v>63860339.4</v>
+        <v>63859811.05679999</v>
       </c>
       <c r="D97">
         <v>21757297.154512</v>
       </c>
       <c r="E97">
-        <v>85617636.55451199</v>
+        <v>85617108.211312</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -4058,13 +4058,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="D98">
         <v>29878235.711904</v>
       </c>
       <c r="E98">
-        <v>114337670.111904</v>
+        <v>114339846.382704</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -4098,13 +4098,13 @@
         </is>
       </c>
       <c r="C99">
-        <v>84459434.39999999</v>
+        <v>84461610.6708</v>
       </c>
       <c r="D99">
         <v>29878235.711904</v>
       </c>
       <c r="E99">
-        <v>114337670.111904</v>
+        <v>114339846.382704</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="D100">
         <v>37579125.723224</v>
       </c>
       <c r="E100">
-        <v>135788062.923224</v>
+        <v>135785037.529424</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>98208937.19999999</v>
+        <v>98205911.8062</v>
       </c>
       <c r="D101">
         <v>37579125.723224</v>
       </c>
       <c r="E101">
-        <v>135788062.923224</v>
+        <v>135785037.529424</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="D102">
         <v>36197226.883248</v>
       </c>
       <c r="E102">
-        <v>133336898.083248</v>
+        <v>133337847.843048</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -4241,9 +4241,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I102">
-        <v>1.346719552103543e-009</v>
       </c>
       <c r="J102">
         <v>4.866648923653742e-014</v>
@@ -4254,11 +4251,8 @@
       <c r="L102">
         <v>1.368981402740116e-011</v>
       </c>
-      <c r="M102">
-        <v>93129583.56761907</v>
-      </c>
       <c r="N102">
-        <v>8766294.800198712</v>
+        <v>8766380.28573091</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -4276,13 +4270,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>97139671.19999999</v>
+        <v>97140620.95979999</v>
       </c>
       <c r="D103">
         <v>36197226.883248</v>
       </c>
       <c r="E103">
-        <v>133336898.083248</v>
+        <v>133337847.843048</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -4304,7 +4298,7 @@
         <v>1.368981402740116e-011</v>
       </c>
       <c r="N103">
-        <v>11365981.81733888</v>
+        <v>12313112.50626974</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -4322,13 +4316,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="D104">
         <v>39782858.67508</v>
       </c>
       <c r="E104">
-        <v>140061140.07508</v>
+        <v>140058586.41628</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4339,9 +4333,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I104">
-        <v>9.831072594584866e-010</v>
       </c>
       <c r="J104">
         <v>5.944336134775048e-014</v>
@@ -4352,11 +4343,8 @@
       <c r="L104">
         <v>1.596118318709646e-011</v>
       </c>
-      <c r="M104">
-        <v>67020410.91212977</v>
-      </c>
       <c r="N104">
-        <v>6308636.387916415</v>
+        <v>6308475.808150586</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -4374,13 +4362,13 @@
         </is>
       </c>
       <c r="C105">
-        <v>100278281.4</v>
+        <v>100275727.7412</v>
       </c>
       <c r="D105">
         <v>39782858.67508</v>
       </c>
       <c r="E105">
-        <v>140061140.07508</v>
+        <v>140058586.41628</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4402,7 +4390,7 @@
         <v>1.596118318709646e-011</v>
       </c>
       <c r="N105">
-        <v>8179492.945598296</v>
+        <v>8860780.60009265</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -4420,13 +4408,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="D106">
         <v>37962648.308768</v>
       </c>
       <c r="E106">
-        <v>137498733.308768</v>
+        <v>136238974.425968</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4437,9 +4425,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I106">
-        <v>1.663879347521273e-009</v>
       </c>
       <c r="J106">
         <v>7.644135598812581e-014</v>
@@ -4450,11 +4435,8 @@
       <c r="L106">
         <v>1.933484732146814e-011</v>
       </c>
-      <c r="M106">
-        <v>95200196.61769341</v>
-      </c>
       <c r="N106">
-        <v>8961201.764438609</v>
+        <v>8847810.33261016</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -4472,13 +4454,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>99536085</v>
+        <v>98276326.11719999</v>
       </c>
       <c r="D107">
         <v>37962648.308768</v>
       </c>
       <c r="E107">
-        <v>137498733.308768</v>
+        <v>136238974.425968</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4500,7 +4482,7 @@
         <v>1.933484732146814e-011</v>
       </c>
       <c r="N107">
-        <v>11618689.38217838</v>
+        <v>12427487.80096773</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -4518,13 +4500,13 @@
         </is>
       </c>
       <c r="C108">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="D108">
         <v>36294629.444656</v>
       </c>
       <c r="E108">
-        <v>141051248.444656</v>
+        <v>141054305.287456</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4535,9 +4517,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I108">
-        <v>3.044248664254185e-009</v>
       </c>
       <c r="J108">
         <v>1.007981345482018e-013</v>
@@ -4548,11 +4527,8 @@
       <c r="L108">
         <v>2.491185820885275e-011</v>
       </c>
-      <c r="M108">
-        <v>141362779.1070719</v>
-      </c>
       <c r="N108">
-        <v>13306489.172994</v>
+        <v>13306877.36836673</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -4570,13 +4546,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>104756619</v>
+        <v>104759675.8428</v>
       </c>
       <c r="D109">
         <v>36294629.444656</v>
       </c>
       <c r="E109">
-        <v>141051248.444656</v>
+        <v>141054305.287456</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4598,7 +4574,7 @@
         <v>2.491185820885275e-011</v>
       </c>
       <c r="N109">
-        <v>17252592.736151</v>
+        <v>18690619.48071456</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -4616,13 +4592,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="D110">
         <v>39374985.449184</v>
       </c>
       <c r="E110">
-        <v>154050619.049184</v>
+        <v>154048298.112984</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4633,9 +4609,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I110">
-        <v>3.637138875031067e-009</v>
       </c>
       <c r="J110">
         <v>1.302520584679732e-013</v>
@@ -4646,11 +4619,8 @@
       <c r="L110">
         <v>3.281393980941069e-011</v>
       </c>
-      <c r="M110">
-        <v>105622680.7552491</v>
-      </c>
       <c r="N110">
-        <v>9942270.9907803</v>
+        <v>9942069.829084944</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -4668,13 +4638,13 @@
         </is>
       </c>
       <c r="C111">
-        <v>114675633.6</v>
+        <v>114673312.6638</v>
       </c>
       <c r="D111">
         <v>39374985.449184</v>
       </c>
       <c r="E111">
-        <v>154050619.049184</v>
+        <v>154048298.112984</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4696,7 +4666,7 @@
         <v>3.281393980941069e-011</v>
       </c>
       <c r="N111">
-        <v>12890699.4208891</v>
+        <v>13964466.55981525</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -4714,13 +4684,13 @@
         </is>
       </c>
       <c r="C112">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="D112">
         <v>42942354.260752</v>
       </c>
       <c r="E112">
-        <v>168442733.660752</v>
+        <v>168430525.158952</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4731,9 +4701,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I112">
-        <v>4.971850730002155e-009</v>
       </c>
       <c r="J112">
         <v>1.513880188812965e-013</v>
@@ -4744,11 +4711,8 @@
       <c r="L112">
         <v>3.527585316582835e-011</v>
       </c>
-      <c r="M112">
-        <v>136544852.5594543</v>
-      </c>
       <c r="N112">
-        <v>12852977.37981119</v>
+        <v>12851720.92326214</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -4766,13 +4730,13 @@
         </is>
       </c>
       <c r="C113">
-        <v>125500379.4</v>
+        <v>125488170.8982</v>
       </c>
       <c r="D113">
         <v>42942354.260752</v>
       </c>
       <c r="E113">
-        <v>168442733.660752</v>
+        <v>168430525.158952</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4794,7 +4758,7 @@
         <v>3.527585316582835e-011</v>
       </c>
       <c r="N113">
-        <v>16664589.83267258</v>
+        <v>18051314.27903982</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -4812,13 +4776,13 @@
         </is>
       </c>
       <c r="C114">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="D114">
         <v>42656234.236616</v>
       </c>
       <c r="E114">
-        <v>169502630.836616</v>
+        <v>172737770.597216</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4829,9 +4793,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I114">
-        <v>5.047433307374346e-009</v>
       </c>
       <c r="J114">
         <v>1.628603899071168e-013</v>
@@ -4842,11 +4803,8 @@
       <c r="L114">
         <v>3.345806827809946e-011</v>
       </c>
-      <c r="M114">
-        <v>138620621.2105668</v>
-      </c>
       <c r="N114">
-        <v>13048369.64116981</v>
+        <v>13381318.97483352</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -4864,13 +4822,13 @@
         </is>
       </c>
       <c r="C115">
-        <v>126846396.6</v>
+        <v>130081536.3606</v>
       </c>
       <c r="D115">
         <v>42656234.236616</v>
       </c>
       <c r="E115">
-        <v>169502630.836616</v>
+        <v>172737770.597216</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4892,7 +4850,7 @@
         <v>3.345806827809946e-011</v>
       </c>
       <c r="N115">
-        <v>16917926.61183273</v>
+        <v>18795178.92779502</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -4910,13 +4868,13 @@
         </is>
       </c>
       <c r="C116">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="D116">
         <v>46655826.914432</v>
       </c>
       <c r="E116">
-        <v>190075846.514432</v>
+        <v>190053448.536632</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4927,9 +4885,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I116">
-        <v>6.126786662702827e-009</v>
       </c>
       <c r="J116">
         <v>1.849746748458621e-013</v>
@@ -4940,11 +4895,8 @@
       <c r="L116">
         <v>3.569785208225281e-011</v>
       </c>
-      <c r="M116">
-        <v>156212831.3125633</v>
-      </c>
       <c r="N116">
-        <v>14704325.71907024</v>
+        <v>14702197.31444227</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -4962,13 +4914,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>143420019.6</v>
+        <v>143397621.6222</v>
       </c>
       <c r="D117">
         <v>46655826.914432</v>
       </c>
       <c r="E117">
-        <v>190075846.514432</v>
+        <v>190053448.536632</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4990,7 +4942,7 @@
         <v>3.569785208225281e-011</v>
       </c>
       <c r="N117">
-        <v>19064964.45401224</v>
+        <v>20650462.7590441</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -5008,13 +4960,13 @@
         </is>
       </c>
       <c r="C118">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="D118">
         <v>49413536.934296</v>
       </c>
       <c r="E118">
-        <v>203872155.534296</v>
+        <v>203924090.412896</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -5025,9 +4977,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I118">
-        <v>6.767369618323762e-009</v>
       </c>
       <c r="J118">
         <v>2.492032850794824e-013</v>
@@ -5038,11 +4987,8 @@
       <c r="L118">
         <v>4.772027305048387e-011</v>
       </c>
-      <c r="M118">
-        <v>141720445.0931784</v>
-      </c>
       <c r="N118">
-        <v>13340156.29952998</v>
+        <v>13344229.7955815</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -5060,13 +5006,13 @@
         </is>
       </c>
       <c r="C119">
-        <v>154458618.6</v>
+        <v>154510553.4786</v>
       </c>
       <c r="D119">
         <v>49413536.934296</v>
       </c>
       <c r="E119">
-        <v>203872155.534296</v>
+        <v>203924090.412896</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -5088,7 +5034,7 @@
         <v>4.772027305048387e-011</v>
       </c>
       <c r="N119">
-        <v>17296244.01149269</v>
+        <v>18743084.08111825</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -5106,13 +5052,13 @@
         </is>
       </c>
       <c r="C120">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="D120">
         <v>50624981.29180799</v>
       </c>
       <c r="E120">
-        <v>209096492.291808</v>
+        <v>209086761.971208</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -5123,9 +5069,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I120">
-        <v>9.190373324521531e-009</v>
       </c>
       <c r="J120">
         <v>3.948747368216798e-013</v>
@@ -5136,11 +5079,8 @@
       <c r="L120">
         <v>7.458349597619671e-011</v>
       </c>
-      <c r="M120">
-        <v>110425268.0613227</v>
-      </c>
       <c r="N120">
-        <v>10394338.89998732</v>
+        <v>10393749.00469861</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -5158,13 +5098,13 @@
         </is>
       </c>
       <c r="C121">
-        <v>158471511</v>
+        <v>158461780.6794</v>
       </c>
       <c r="D121">
         <v>50624981.29180799</v>
       </c>
       <c r="E121">
-        <v>209096492.291808</v>
+        <v>209086761.971208</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -5186,7 +5126,7 @@
         <v>7.458349597619671e-011</v>
       </c>
       <c r="N121">
-        <v>13476830.2496325</v>
+        <v>14598887.6463751</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -5204,13 +5144,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="D122">
         <v>54265402.024432</v>
       </c>
       <c r="E122">
-        <v>207988114.024432</v>
+        <v>207993976.118032</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -5247,13 +5187,13 @@
         </is>
       </c>
       <c r="C123">
-        <v>153722712</v>
+        <v>153728574.0936</v>
       </c>
       <c r="D123">
         <v>54265402.024432</v>
       </c>
       <c r="E123">
-        <v>207988114.024432</v>
+        <v>207993976.118032</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -5290,13 +5230,13 @@
         </is>
       </c>
       <c r="C124">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="D124">
         <v>57388371.64957599</v>
       </c>
       <c r="E124">
-        <v>208481947.249576</v>
+        <v>208483607.756776</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -5307,9 +5247,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I124">
-        <v>4.001704851261528e-008</v>
       </c>
       <c r="J124">
         <v>7.862865874627233e-013</v>
@@ -5320,11 +5257,8 @@
       <c r="L124">
         <v>1.264758559732277e-010</v>
       </c>
-      <c r="M124">
-        <v>443149868.1722203</v>
-      </c>
       <c r="N124">
-        <v>41713730.87098834</v>
+        <v>41714176.88986687</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -5342,13 +5276,13 @@
         </is>
       </c>
       <c r="C125">
-        <v>151093575.6</v>
+        <v>151095236.1072</v>
       </c>
       <c r="D125">
         <v>57388371.64957599</v>
       </c>
       <c r="E125">
-        <v>208481947.249576</v>
+        <v>208483607.756776</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -5370,7 +5304,7 @@
         <v>1.264758559732277e-010</v>
       </c>
       <c r="N125">
-        <v>54084139.0141561</v>
+        <v>58591041.73103337</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -5388,13 +5322,13 @@
         </is>
       </c>
       <c r="C126">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="D126">
         <v>62550707.4042</v>
       </c>
       <c r="E126">
-        <v>207014833.8042</v>
+        <v>207016242.7194</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -5405,9 +5339,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I126">
-        <v>7.035185625490869e-008</v>
       </c>
       <c r="J126">
         <v>2.223562701279655e-012</v>
@@ -5418,11 +5349,8 @@
       <c r="L126">
         <v>3.74002397389071e-010</v>
       </c>
-      <c r="M126">
-        <v>263128405.15503</v>
-      </c>
       <c r="N126">
-        <v>24768296.83470355</v>
+        <v>24768532.88988121</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -5440,13 +5368,13 @@
         </is>
       </c>
       <c r="C127">
-        <v>144464126.4</v>
+        <v>144465535.3152</v>
       </c>
       <c r="D127">
         <v>62550707.4042</v>
       </c>
       <c r="E127">
-        <v>207014833.8042</v>
+        <v>207016242.7194</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -5468,7 +5396,7 @@
         <v>3.74002397389071e-010</v>
       </c>
       <c r="N127">
-        <v>32113454.75893776</v>
+        <v>34789470.92732948</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -5486,13 +5414,13 @@
         </is>
       </c>
       <c r="C128">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="D128">
         <v>67159066.09081599</v>
       </c>
       <c r="E128">
-        <v>212749066.690816</v>
+        <v>212751978.868216</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5503,9 +5431,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I128">
-        <v>5.28886956129955e-007</v>
       </c>
       <c r="J128">
         <v>1.209644933163598e-011</v>
@@ -5516,11 +5441,8 @@
       <c r="L128">
         <v>2.001721362135581e-009</v>
       </c>
-      <c r="M128">
-        <v>277803083.7626965</v>
-      </c>
       <c r="N128">
-        <v>26149625.45064835</v>
+        <v>26150132.45922958</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -5538,13 +5460,13 @@
         </is>
       </c>
       <c r="C129">
-        <v>145590000.6</v>
+        <v>145592912.7774</v>
       </c>
       <c r="D129">
         <v>67159066.09081599</v>
       </c>
       <c r="E129">
-        <v>212749066.690816</v>
+        <v>212751978.868216</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -5566,7 +5488,7 @@
         <v>2.001721362135581e-009</v>
       </c>
       <c r="N129">
-        <v>33904423.04034241</v>
+        <v>36730042.79182987</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -5584,13 +5506,13 @@
         </is>
       </c>
       <c r="C130">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="D130">
         <v>71000379.606344</v>
       </c>
       <c r="E130">
-        <v>228541000.206344</v>
+        <v>228543100.999544</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -5601,9 +5523,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I130">
-        <v>1.421905756013569e-006</v>
       </c>
       <c r="J130">
         <v>3.339003770379513e-011</v>
@@ -5614,11 +5533,8 @@
       <c r="L130">
         <v>4.817638854131992e-009</v>
       </c>
-      <c r="M130">
-        <v>337474595.0836216</v>
-      </c>
       <c r="N130">
-        <v>31766509.35986089</v>
+        <v>31766875.71624719</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -5636,13 +5552,13 @@
         </is>
       </c>
       <c r="C131">
-        <v>157540620.6</v>
+        <v>157542721.3932</v>
       </c>
       <c r="D131">
         <v>71000379.606344</v>
       </c>
       <c r="E131">
-        <v>228541000.206344</v>
+        <v>228543100.999544</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5664,7 +5580,7 @@
         <v>4.817638854131992e-009</v>
       </c>
       <c r="N131">
-        <v>41187020.97222646</v>
+        <v>44619227.31135856</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -5682,13 +5598,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="D132">
         <v>70032441.65235199</v>
       </c>
       <c r="E132">
-        <v>235171140.652352</v>
+        <v>235170385.876352</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5699,9 +5615,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I132">
-        <v>5.08373359635991e-006</v>
       </c>
       <c r="J132">
         <v>9.199250042399376e-011</v>
@@ -5712,11 +5625,8 @@
       <c r="L132">
         <v>1.26226303914943e-008</v>
       </c>
-      <c r="M132">
-        <v>618558798.3279705</v>
-      </c>
       <c r="N132">
-        <v>58224986.83742673</v>
+        <v>58224765.79842234</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -5734,13 +5644,13 @@
         </is>
       </c>
       <c r="C133">
-        <v>165138699</v>
+        <v>165137944.224</v>
       </c>
       <c r="D133">
         <v>70032441.65235199</v>
       </c>
       <c r="E133">
-        <v>235171140.652352</v>
+        <v>235170385.876352</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5762,7 +5672,7 @@
         <v>1.26226303914943e-008</v>
       </c>
       <c r="N133">
-        <v>75491887.59816593</v>
+        <v>81781541.36139053</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -5780,13 +5690,13 @@
         </is>
       </c>
       <c r="C134">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="D134">
         <v>78013364.02771999</v>
       </c>
       <c r="E134">
-        <v>250567737.22772</v>
+        <v>250567202.59472</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5797,9 +5707,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I134">
-        <v>1.078353036995753e-005</v>
       </c>
       <c r="J134">
         <v>2.387307052955516e-010</v>
@@ -5810,11 +5717,8 @@
       <c r="L134">
         <v>2.462601971542461e-008</v>
       </c>
-      <c r="M134">
-        <v>791252264.577832</v>
-      </c>
       <c r="N134">
-        <v>74480635.97941244</v>
+        <v>74480447.46353017</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -5832,13 +5736,13 @@
         </is>
       </c>
       <c r="C135">
-        <v>172554373.2</v>
+        <v>172553838.567</v>
       </c>
       <c r="D135">
         <v>78013364.02771999</v>
       </c>
       <c r="E135">
-        <v>250567737.22772</v>
+        <v>250567202.59472</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5860,7 +5764,7 @@
         <v>2.462601971542461e-008</v>
       </c>
       <c r="N135">
-        <v>96568227.9207229</v>
+        <v>104614002.5009532</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -5878,13 +5782,13 @@
         </is>
       </c>
       <c r="C136">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="D136">
         <v>81976430.74500799</v>
       </c>
       <c r="E136">
-        <v>261650857.545008</v>
+        <v>261652140.664208</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5921,13 +5825,13 @@
         </is>
       </c>
       <c r="C137">
-        <v>179674426.8</v>
+        <v>179675709.9192</v>
       </c>
       <c r="D137">
         <v>81976430.74500799</v>
       </c>
       <c r="E137">
-        <v>261650857.545008</v>
+        <v>261652140.664208</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5964,13 +5868,13 @@
         </is>
       </c>
       <c r="C138">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="D138">
         <v>82968719.339352</v>
       </c>
       <c r="E138">
-        <v>264442028.939352</v>
+        <v>264444349.875552</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6007,13 +5911,13 @@
         </is>
       </c>
       <c r="C139">
-        <v>181473309.6</v>
+        <v>181475630.5362</v>
       </c>
       <c r="D139">
         <v>82968719.339352</v>
       </c>
       <c r="E139">
-        <v>264442028.939352</v>
+        <v>264444349.875552</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -6050,13 +5954,13 @@
         </is>
       </c>
       <c r="C140">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="D140">
         <v>94498747.546024</v>
       </c>
       <c r="E140">
-        <v>273569353.546024</v>
+        <v>273570007.685224</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -6093,13 +5997,13 @@
         </is>
       </c>
       <c r="C141">
-        <v>179070606</v>
+        <v>179071260.1392</v>
       </c>
       <c r="D141">
         <v>94498747.546024</v>
       </c>
       <c r="E141">
-        <v>273569353.546024</v>
+        <v>273570007.685224</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -6136,13 +6040,13 @@
         </is>
       </c>
       <c r="C142">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="D142">
         <v>104592087.971928</v>
       </c>
       <c r="E142">
-        <v>283687853.171928</v>
+        <v>283688557.629528</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -6179,13 +6083,13 @@
         </is>
       </c>
       <c r="C143">
-        <v>179095765.2</v>
+        <v>179096469.6576</v>
       </c>
       <c r="D143">
         <v>104592087.971928</v>
       </c>
       <c r="E143">
-        <v>283687853.171928</v>
+        <v>283688557.629528</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -6222,13 +6126,13 @@
         </is>
       </c>
       <c r="C144">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="D144">
         <v>114228853.891232</v>
       </c>
       <c r="E144">
-        <v>289324306.291232</v>
+        <v>289325507.643032</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -6239,9 +6143,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I144">
-        <v>0.006315537060302941</v>
       </c>
       <c r="J144">
         <v>8.369211238631533e-008</v>
@@ -6252,11 +6153,8 @@
       <c r="L144">
         <v>6.521534993208238e-006</v>
       </c>
-      <c r="M144">
-        <v>896699474.29011</v>
-      </c>
       <c r="N144">
-        <v>84406389.86754225</v>
+        <v>84406843.23358856</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -6274,13 +6172,13 @@
         </is>
       </c>
       <c r="C145">
-        <v>175095452.4</v>
+        <v>175096653.7518</v>
       </c>
       <c r="D145">
         <v>114228853.891232</v>
       </c>
       <c r="E145">
-        <v>289324306.291232</v>
+        <v>289325507.643032</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -6302,7 +6200,7 @@
         <v>6.521534993208238e-006</v>
       </c>
       <c r="N145">
-        <v>109437512.0124816</v>
+        <v>118556453.5371505</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -6320,13 +6218,13 @@
         </is>
       </c>
       <c r="C146">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="D146">
         <v>116353447.261944</v>
       </c>
       <c r="E146">
-        <v>284133862.261944</v>
+        <v>284134245.939744</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -6337,9 +6235,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I146">
-        <v>0.05846996592349409</v>
       </c>
       <c r="J146">
         <v>6.462554992588711e-007</v>
@@ -6350,11 +6245,8 @@
       <c r="L146">
         <v>5.369904101939766e-005</v>
       </c>
-      <c r="M146">
-        <v>936713730.4293538</v>
-      </c>
       <c r="N146">
-        <v>88172934.84809165</v>
+        <v>88173091.59326606</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -6372,13 +6264,13 @@
         </is>
       </c>
       <c r="C147">
-        <v>167780415</v>
+        <v>167780798.6778</v>
       </c>
       <c r="D147">
         <v>116353447.261944</v>
       </c>
       <c r="E147">
-        <v>284133862.261944</v>
+        <v>284134245.939744</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -6400,7 +6292,7 @@
         <v>5.369904101939766e-005</v>
       </c>
       <c r="N147">
-        <v>114321044.0792042</v>
+        <v>123846463.5832292</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -6418,13 +6310,13 @@
         </is>
       </c>
       <c r="C148">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="D148">
         <v>117163106.053648</v>
       </c>
       <c r="E148">
-        <v>275533980.253648</v>
+        <v>275533640.604448</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -6435,9 +6327,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I148">
-        <v>0.09505032529119847</v>
       </c>
       <c r="J148">
         <v>1.228468519632346e-006</v>
@@ -6448,11 +6337,8 @@
       <c r="L148">
         <v>8.955315961391932e-005</v>
       </c>
-      <c r="M148">
-        <v>969902325.3465207</v>
-      </c>
       <c r="N148">
-        <v>91296979.81750803</v>
+        <v>91296825.03984939</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -6470,13 +6356,13 @@
         </is>
       </c>
       <c r="C149">
-        <v>158370874.2</v>
+        <v>158370534.5508</v>
       </c>
       <c r="D149">
         <v>117163106.053648</v>
       </c>
       <c r="E149">
-        <v>275533980.253648</v>
+        <v>275533640.604448</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -6498,7 +6384,7 @@
         <v>8.955315961391932e-005</v>
       </c>
       <c r="N149">
-        <v>118371539.6566664</v>
+        <v>128234007.8276861</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -6516,13 +6402,13 @@
         </is>
       </c>
       <c r="C150">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="D150">
         <v>116688268.566784</v>
       </c>
       <c r="E150">
-        <v>273033827.166784</v>
+        <v>273034695.159184</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -6533,9 +6419,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I150">
-        <v>0.1758598660996728</v>
       </c>
       <c r="J150">
         <v>2.841872232382947e-006</v>
@@ -6546,11 +6429,8 @@
       <c r="L150">
         <v>0.0002084751217589009</v>
       </c>
-      <c r="M150">
-        <v>789911180.0083002</v>
-      </c>
       <c r="N150">
-        <v>74354399.58665569</v>
+        <v>74354726.34386933</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -6568,13 +6448,13 @@
         </is>
       </c>
       <c r="C151">
-        <v>156345558.6</v>
+        <v>156346426.5924</v>
       </c>
       <c r="D151">
         <v>116688268.566784</v>
       </c>
       <c r="E151">
-        <v>273033827.166784</v>
+        <v>273034695.159184</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -6596,7 +6476,7 @@
         <v>0.0002084751217589009</v>
       </c>
       <c r="N151">
-        <v>96404555.51665013</v>
+        <v>104437416.6992492</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -6614,13 +6494,13 @@
         </is>
       </c>
       <c r="C152">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="D152">
         <v>138396864.440592</v>
       </c>
       <c r="E152">
-        <v>302705309.840592</v>
+        <v>302703297.104592</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -6631,9 +6511,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I152">
-        <v>1.051535577446003</v>
       </c>
       <c r="J152">
         <v>1.258818630324046e-005</v>
@@ -6644,11 +6521,8 @@
       <c r="L152">
         <v>0.0009757902950238913</v>
       </c>
-      <c r="M152">
-        <v>1160462502.756056</v>
-      </c>
       <c r="N152">
-        <v>109234423.8428777</v>
+        <v>109233453.3964089</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -6666,13 +6540,13 @@
         </is>
       </c>
       <c r="C153">
-        <v>164308445.4</v>
+        <v>164306432.664</v>
       </c>
       <c r="D153">
         <v>138396864.440592</v>
       </c>
       <c r="E153">
-        <v>302705309.840592</v>
+        <v>302703297.104592</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -6694,7 +6568,7 @@
         <v>0.0009757902950238913</v>
       </c>
       <c r="N153">
-        <v>141628419.2493154</v>
+        <v>153427498.8398149</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -6712,13 +6586,13 @@
         </is>
       </c>
       <c r="C154">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="D154">
         <v>147363987.750216</v>
       </c>
       <c r="E154">
-        <v>315383415.150216</v>
+        <v>315385201.453416</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -6729,9 +6603,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I154">
-        <v>6.926351738087976</v>
       </c>
       <c r="J154">
         <v>0.0004002356763482399</v>
@@ -6742,11 +6613,8 @@
       <c r="L154">
         <v>0.02997746864233889</v>
       </c>
-      <c r="M154">
-        <v>168979342.6821778</v>
-      </c>
       <c r="N154">
-        <v>15906038.40744354</v>
+        <v>15906190.88301743</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -6764,13 +6632,13 @@
         </is>
       </c>
       <c r="C155">
-        <v>168019427.4</v>
+        <v>168021213.7032</v>
       </c>
       <c r="D155">
         <v>147363987.750216</v>
       </c>
       <c r="E155">
-        <v>315383415.150216</v>
+        <v>315385201.453416</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -6792,7 +6660,7 @@
         <v>0.02997746864233889</v>
       </c>
       <c r="N155">
-        <v>20623050.83794342</v>
+        <v>22341572.17746869</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -6810,13 +6678,13 @@
         </is>
       </c>
       <c r="C156">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="D156">
         <v>140125759.905584</v>
       </c>
       <c r="E156">
-        <v>316265319.105584</v>
+        <v>316265545.538384</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -6827,9 +6695,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I156">
-        <v>489.9198825144694</v>
       </c>
       <c r="J156">
         <v>0.009661539997048749</v>
@@ -6840,11 +6705,8 @@
       <c r="L156">
         <v>0.7399955380923077</v>
       </c>
-      <c r="M156">
-        <v>1048827388.424335</v>
-      </c>
       <c r="N156">
-        <v>98726202.02123493</v>
+        <v>98726325.99259257</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -6862,13 +6724,13 @@
         </is>
       </c>
       <c r="C157">
-        <v>176139559.2</v>
+        <v>176139785.6328</v>
       </c>
       <c r="D157">
         <v>140125759.905584</v>
       </c>
       <c r="E157">
-        <v>316265319.105584</v>
+        <v>316265545.538384</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -6890,7 +6752,7 @@
         <v>0.7399955380923077</v>
       </c>
       <c r="N157">
-        <v>128003933.5481674</v>
+        <v>138669361.7725141</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -6908,13 +6770,13 @@
         </is>
       </c>
       <c r="C158">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="D158">
         <v>150018207.548584</v>
       </c>
       <c r="E158">
-        <v>330038573.3485839</v>
+        <v>330035554.244584</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -6925,9 +6787,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I158">
-        <v>1169.20029260872</v>
       </c>
       <c r="J158">
         <v>0.02624766876752879</v>
@@ -6938,11 +6797,8 @@
       <c r="L158">
         <v>1.71047390032745</v>
       </c>
-      <c r="M158">
-        <v>1183015966.080931</v>
-      </c>
       <c r="N158">
-        <v>111357383.0648286</v>
+        <v>111355567.4862091</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -6960,13 +6816,13 @@
         </is>
       </c>
       <c r="C159">
-        <v>180020365.8</v>
+        <v>180017346.696</v>
       </c>
       <c r="D159">
         <v>150018207.548584</v>
       </c>
       <c r="E159">
-        <v>330038573.3485839</v>
+        <v>330035554.244584</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -6988,7 +6844,7 @@
         <v>1.71047390032745</v>
       </c>
       <c r="N159">
-        <v>144380952.2710315</v>
+        <v>156408185.1307555</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -7006,13 +6862,13 @@
         </is>
       </c>
       <c r="C160">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="D160">
         <v>152453271.583784</v>
       </c>
       <c r="E160">
-        <v>355274162.3837839</v>
+        <v>355274816.522984</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -7023,9 +6879,6 @@
         <is>
           <t>Criterio CCNN</t>
         </is>
-      </c>
-      <c r="I160">
-        <v>1194.305906888158</v>
       </c>
       <c r="J160">
         <v>0.0327833305762449</v>
@@ -7036,11 +6889,8 @@
       <c r="L160">
         <v>1.923274173936026</v>
       </c>
-      <c r="M160">
-        <v>1159593257.67749</v>
-      </c>
       <c r="N160">
-        <v>109152601.7373724</v>
+        <v>109152935.4218294</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -7058,13 +6908,13 @@
         </is>
       </c>
       <c r="C161">
-        <v>202820890.8</v>
+        <v>202821544.9392</v>
       </c>
       <c r="D161">
         <v>152453271.583784</v>
       </c>
       <c r="E161">
-        <v>355274162.3837839</v>
+        <v>355274816.522984</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -7086,7 +6936,7 @@
         <v>1.923274173936026</v>
       </c>
       <c r="N161">
-        <v>141522332.403661</v>
+        <v>153314404.6267578</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -7104,13 +6954,13 @@
         </is>
       </c>
       <c r="C162">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="D162">
         <v>155646594.2876372</v>
       </c>
       <c r="E162">
-        <v>372356571.6953192</v>
+        <v>372313190.3786372</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -7123,7 +6973,7 @@
         </is>
       </c>
       <c r="I162">
-        <v>1718.484843696575</v>
+        <v>1027.629300741141</v>
       </c>
       <c r="J162">
         <v>0.03626214168808563</v>
@@ -7135,10 +6985,10 @@
         <v>1.984071733694896</v>
       </c>
       <c r="M162">
-        <v>1668536868.718774</v>
+        <v>2410873650.244087</v>
       </c>
       <c r="N162">
-        <v>157059502.6398782</v>
+        <v>157035243.5161128</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -7156,13 +7006,13 @@
         </is>
       </c>
       <c r="C163">
-        <v>216709977.407682</v>
+        <v>216666596.091</v>
       </c>
       <c r="D163">
         <v>155646594.2876372</v>
       </c>
       <c r="E163">
-        <v>372356571.6953192</v>
+        <v>372313190.3786372</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -7173,6 +7023,9 @@
         <is>
           <t>Empalme CCNN</t>
         </is>
+      </c>
+      <c r="I163">
+        <v>1502.372025409185</v>
       </c>
       <c r="J163">
         <v>0.03626214168808563</v>
@@ -7183,8 +7036,11 @@
       <c r="L163">
         <v>1.984071733694896</v>
       </c>
+      <c r="M163">
+        <v>3057156215.586148</v>
+      </c>
       <c r="N163">
-        <v>203636255.9019438</v>
+        <v>220569101.2527352</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -7202,13 +7058,13 @@
         </is>
       </c>
       <c r="C164">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="D164">
         <v>161787180.8990979</v>
       </c>
       <c r="E164">
-        <v>405492575.7368115</v>
+        <v>405406676.9948979</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -7221,7 +7077,7 @@
         </is>
       </c>
       <c r="I164">
-        <v>1855.161386562455</v>
+        <v>1116.945090174794</v>
       </c>
       <c r="J164">
         <v>0.03777692010657557</v>
@@ -7233,10 +7089,10 @@
         <v>1.923568591718104</v>
       </c>
       <c r="M164">
-        <v>1765368786.428665</v>
+        <v>2550495937.315237</v>
       </c>
       <c r="N164">
-        <v>167031484.1507216</v>
+        <v>166986669.982663</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -7254,13 +7110,13 @@
         </is>
       </c>
       <c r="C165">
-        <v>243705394.8377136</v>
+        <v>243619496.0958</v>
       </c>
       <c r="D165">
         <v>161787180.8990979</v>
       </c>
       <c r="E165">
-        <v>405492575.7368115</v>
+        <v>405406676.9948979</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -7271,6 +7127,9 @@
         <is>
           <t>Empalme CCNN</t>
         </is>
+      </c>
+      <c r="I165">
+        <v>1632.194685223172</v>
       </c>
       <c r="J165">
         <v>0.03777692010657557</v>
@@ -7281,8 +7140,11 @@
       <c r="L165">
         <v>1.923568591718104</v>
       </c>
+      <c r="M165">
+        <v>3234207029.804764</v>
+      </c>
       <c r="N165">
-        <v>216565476.6409628</v>
+        <v>234546709.9905117</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -7300,13 +7162,13 @@
         </is>
       </c>
       <c r="C166">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="D166">
         <v>177701691.9680564</v>
       </c>
       <c r="E166">
-        <v>440233731.2046818</v>
+        <v>440233729.8020563</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -7319,7 +7181,7 @@
         </is>
       </c>
       <c r="I166">
-        <v>2184.115602137897</v>
+        <v>1318.819487349515</v>
       </c>
       <c r="J166">
         <v>0.03905230896668054</v>
@@ -7331,10 +7193,10 @@
         <v>2.017474921543611</v>
       </c>
       <c r="M166">
-        <v>2091287553.478833</v>
+        <v>3022174099.856762</v>
       </c>
       <c r="N166">
-        <v>198261555.8887263</v>
+        <v>198261555.0776916</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -7352,13 +7214,13 @@
         </is>
       </c>
       <c r="C167">
-        <v>262532039.2366254</v>
+        <v>262532037.834</v>
       </c>
       <c r="D167">
         <v>177701691.9680564</v>
       </c>
       <c r="E167">
-        <v>440233731.2046818</v>
+        <v>440233729.8020563</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -7369,6 +7231,9 @@
         <is>
           <t>Empalme CCNN</t>
         </is>
+      </c>
+      <c r="I167">
+        <v>1926.857145350121</v>
       </c>
       <c r="J167">
         <v>0.03905230896668054</v>
@@ -7379,8 +7244,11 @@
       <c r="L167">
         <v>2.017474921543611</v>
       </c>
+      <c r="M167">
+        <v>3832327892.017549</v>
+      </c>
       <c r="N167">
-        <v>257056976.8264579</v>
+        <v>278474895.4267015</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -7398,13 +7266,13 @@
         </is>
       </c>
       <c r="C168">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="D168">
         <v>203163981.6980104</v>
       </c>
       <c r="E168">
-        <v>489787699.8383722</v>
+        <v>489787702.0964104</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -7417,7 +7285,7 @@
         </is>
       </c>
       <c r="I168">
-        <v>2950.044129361247</v>
+        <v>1807.793168871205</v>
       </c>
       <c r="J168">
         <v>0.03911310646925639</v>
@@ -7429,10 +7297,10 @@
         <v>1.85784504592785</v>
       </c>
       <c r="M168">
-        <v>2735086267.588049</v>
+        <v>3952544426.753643</v>
       </c>
       <c r="N168">
-        <v>262280860.1007482</v>
+        <v>262280861.7396228</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -7450,13 +7318,13 @@
         </is>
       </c>
       <c r="C169">
-        <v>286623718.1403618</v>
+        <v>286623720.3984</v>
       </c>
       <c r="D169">
         <v>203163981.6980104</v>
       </c>
       <c r="E169">
-        <v>489787699.8383722</v>
+        <v>489787702.0964104</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -7467,6 +7335,9 @@
         <is>
           <t>Empalme CCNN</t>
         </is>
+      </c>
+      <c r="I169">
+        <v>2638.701568649435</v>
       </c>
       <c r="J169">
         <v>0.03911310646925639</v>
@@ -7477,8 +7348,11 @@
       <c r="L169">
         <v>1.85784504592785</v>
       </c>
+      <c r="M169">
+        <v>5012102463.522676</v>
+      </c>
       <c r="N169">
-        <v>340061514.5721009</v>
+        <v>368395352.8799135</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -7496,13 +7370,13 @@
         </is>
       </c>
       <c r="C170">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="D170">
         <v>225693807.7719897</v>
       </c>
       <c r="E170">
-        <v>530138734.3589865</v>
+        <v>530138733.0003897</v>
       </c>
       <c r="F170">
         <v>140.3441734589189</v>
@@ -7518,7 +7392,7 @@
         </is>
       </c>
       <c r="I170">
-        <v>3006.513932009819</v>
+        <v>1881.251584507789</v>
       </c>
       <c r="J170">
         <v>0.03931985818757383</v>
@@ -7530,10 +7404,10 @@
         <v>1.768393605818139</v>
       </c>
       <c r="M170">
-        <v>2697481017.117345</v>
+        <v>3898200061.530974</v>
       </c>
       <c r="N170">
-        <v>263151167.4860074</v>
+        <v>263151166.5664969</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -7541,13 +7415,13 @@
         </is>
       </c>
       <c r="T170">
-        <v>2960632324.947526</v>
+        <v>4161351368.441645</v>
       </c>
       <c r="V170">
-        <v>5.584636875340477</v>
+        <v>7.849551653941471</v>
       </c>
       <c r="W170">
-        <v>0.9630984080406231</v>
+        <v>1.353694227663239</v>
       </c>
     </row>
     <row r="171">
@@ -7560,13 +7434,13 @@
         </is>
       </c>
       <c r="C171">
-        <v>304444926.5869968</v>
+        <v>304444925.2284</v>
       </c>
       <c r="D171">
         <v>225693807.7719897</v>
       </c>
       <c r="E171">
-        <v>530138734.3589865</v>
+        <v>530138733.0003897</v>
       </c>
       <c r="F171">
         <v>140.3441734589189</v>
@@ -7581,6 +7455,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I171">
+        <v>2742.210222148368</v>
+      </c>
       <c r="J171">
         <v>0.03931985818757383</v>
       </c>
@@ -7590,13 +7467,25 @@
       <c r="L171">
         <v>1.768393605818139</v>
       </c>
+      <c r="M171">
+        <v>4943190011.845358</v>
+      </c>
       <c r="N171">
-        <v>341189915.811371</v>
+        <v>369617768.6203638</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T171">
+        <v>5312807920.809896</v>
+      </c>
+      <c r="V171">
+        <v>10.02154264552858</v>
+      </c>
+      <c r="W171">
+        <v>1.728264877997346</v>
       </c>
     </row>
     <row r="172">
@@ -7609,13 +7498,13 @@
         </is>
       </c>
       <c r="C172">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="D172">
         <v>235167702.8249396</v>
       </c>
       <c r="E172">
-        <v>544296623.1621722</v>
+        <v>544296623.2439395</v>
       </c>
       <c r="F172">
         <v>1152.292740357098</v>
@@ -7631,7 +7520,7 @@
         </is>
       </c>
       <c r="I172">
-        <v>2456.642663833782</v>
+        <v>1712.082798673934</v>
       </c>
       <c r="J172">
         <v>0.03968343691624254</v>
@@ -7643,36 +7532,39 @@
         <v>1.763942688451787</v>
       </c>
       <c r="M172">
-        <v>1799173508.674953</v>
+        <v>2600032498.289693</v>
       </c>
       <c r="N172">
-        <v>196340109.7633998</v>
+        <v>196340109.7996839</v>
       </c>
       <c r="O172">
-        <v>10683420917.28989</v>
+        <v>8933000000</v>
       </c>
       <c r="P172">
         <v>0.135698927</v>
       </c>
+      <c r="Q172">
+        <v>1510669136.129121</v>
+      </c>
       <c r="S172" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
       </c>
       <c r="T172">
-        <v>1995514770.731093</v>
+        <v>2796373760.382117</v>
       </c>
       <c r="U172">
-        <v>3445243525.896688</v>
+        <v>4008572275.273117</v>
       </c>
       <c r="V172">
-        <v>3.666226623156053</v>
+        <v>5.13759160164559</v>
       </c>
       <c r="W172">
-        <v>0.6322590175681698</v>
+        <v>0.8860032269163567</v>
       </c>
       <c r="X172">
-        <v>6.329716884666733</v>
+        <v>7.364683343766731</v>
       </c>
     </row>
     <row r="173">
@@ -7685,13 +7577,13 @@
         </is>
       </c>
       <c r="C173">
-        <v>309128920.3372326</v>
+        <v>309128920.419</v>
       </c>
       <c r="D173">
         <v>235167702.8249396</v>
       </c>
       <c r="E173">
-        <v>544296623.1621722</v>
+        <v>544296623.2439395</v>
       </c>
       <c r="F173">
         <v>1152.292740357098</v>
@@ -7706,6 +7598,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I173">
+        <v>2479.251483814329</v>
+      </c>
       <c r="J173">
         <v>0.03968343691624254</v>
       </c>
@@ -7715,19 +7610,40 @@
       <c r="L173">
         <v>1.763942688451787</v>
       </c>
+      <c r="M173">
+        <v>3297022849.815277</v>
+      </c>
       <c r="N173">
-        <v>254565716.5823965</v>
+        <v>275776065.2240852</v>
       </c>
       <c r="O173">
-        <v>10683420917.28989</v>
+        <v>8933000000</v>
       </c>
       <c r="P173">
         <v>0.135698927</v>
       </c>
+      <c r="Q173">
+        <v>1510669136.129121</v>
+      </c>
       <c r="S173" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T173">
+        <v>3572800067.332103</v>
+      </c>
+      <c r="U173">
+        <v>4784998582.223103</v>
+      </c>
+      <c r="V173">
+        <v>6.564068037090995</v>
+      </c>
+      <c r="W173">
+        <v>1.132006183733701</v>
+      </c>
+      <c r="X173">
+        <v>8.791159779212137</v>
       </c>
     </row>
     <row r="174">
@@ -7740,13 +7656,13 @@
         </is>
       </c>
       <c r="C174">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="D174">
         <v>247974898.2428799</v>
       </c>
       <c r="E174">
-        <v>546525577.6452227</v>
+        <v>528919287.7598798</v>
       </c>
       <c r="F174">
         <v>1131.575850671096</v>
@@ -7762,7 +7678,7 @@
         </is>
       </c>
       <c r="I174">
-        <v>2748.628118748243</v>
+        <v>1597.435062108346</v>
       </c>
       <c r="J174">
         <v>0.03922045302242034</v>
@@ -7774,36 +7690,39 @@
         <v>1.820597603029724</v>
       </c>
       <c r="M174">
-        <v>2577561953.312327</v>
+        <v>3559323840.074156</v>
       </c>
       <c r="N174">
-        <v>245721314.3096481</v>
+        <v>234798594.039901</v>
       </c>
       <c r="O174">
-        <v>8207633248.708033</v>
+        <v>8772395000</v>
       </c>
       <c r="P174">
         <v>0.107747531</v>
       </c>
+      <c r="Q174">
+        <v>2368760595.293696</v>
+      </c>
       <c r="S174" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
       </c>
       <c r="T174">
-        <v>2823284399.197825</v>
+        <v>3794123565.689907</v>
       </c>
       <c r="U174">
-        <v>3707636617.099625</v>
+        <v>4739327467.896652</v>
       </c>
       <c r="V174">
-        <v>5.165877892416889</v>
+        <v>7.173350742717428</v>
       </c>
       <c r="W174">
-        <v>0.890881338460458</v>
+        <v>1.237080016989821</v>
       </c>
       <c r="X174">
-        <v>6.784012988146803</v>
+        <v>8.960398264107594</v>
       </c>
     </row>
     <row r="175">
@@ -7816,13 +7735,13 @@
         </is>
       </c>
       <c r="C175">
-        <v>298550679.4023428</v>
+        <v>280944389.517</v>
       </c>
       <c r="D175">
         <v>247974898.2428799</v>
       </c>
       <c r="E175">
-        <v>546525577.6452227</v>
+        <v>528919287.7598798</v>
       </c>
       <c r="F175">
         <v>1131.575850671096</v>
@@ -7837,6 +7756,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I175">
+        <v>2332.809716838728</v>
+      </c>
       <c r="J175">
         <v>0.03922045302242034</v>
       </c>
@@ -7846,19 +7768,40 @@
       <c r="L175">
         <v>1.820597603029724</v>
       </c>
+      <c r="M175">
+        <v>4513471288.661265</v>
+      </c>
       <c r="N175">
-        <v>318591155.5829452</v>
+        <v>329794215.0003601</v>
       </c>
       <c r="O175">
-        <v>8207633248.708033</v>
+        <v>8772395000</v>
       </c>
       <c r="P175">
         <v>0.107747531</v>
       </c>
+      <c r="Q175">
+        <v>2368760595.293696</v>
+      </c>
       <c r="S175" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T175">
+        <v>4843266635.237476</v>
+      </c>
+      <c r="U175">
+        <v>5788470537.444222</v>
+      </c>
+      <c r="V175">
+        <v>9.156910604924347</v>
+      </c>
+      <c r="W175">
+        <v>1.579154781775363</v>
+      </c>
+      <c r="X175">
+        <v>10.94395812631451</v>
       </c>
     </row>
     <row r="176">
@@ -7871,13 +7814,13 @@
         </is>
       </c>
       <c r="C176">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="D176">
         <v>275128569.9242944</v>
       </c>
       <c r="E176">
-        <v>558805843.6644316</v>
+        <v>547406250.3110944</v>
       </c>
       <c r="F176">
         <v>2193.249209578293</v>
@@ -7893,7 +7836,7 @@
         </is>
       </c>
       <c r="I176">
-        <v>3862.816651088886</v>
+        <v>2094.169295330978</v>
       </c>
       <c r="J176">
         <v>0.03885231180582566</v>
@@ -7905,36 +7848,39 @@
         <v>1.761519183638594</v>
       </c>
       <c r="M176">
-        <v>4052774508.881307</v>
+        <v>5668995682.830587</v>
       </c>
       <c r="N176">
-        <v>365182135.2693905</v>
+        <v>353474005.0384509</v>
       </c>
       <c r="O176">
-        <v>15223687757.08566</v>
+        <v>17002880000</v>
       </c>
       <c r="P176">
         <v>0.117066142</v>
       </c>
+      <c r="Q176">
+        <v>4154791295.016011</v>
+      </c>
       <c r="S176" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
       </c>
       <c r="T176">
-        <v>4417958837.399907</v>
+        <v>6022471881.118248</v>
       </c>
       <c r="U176">
-        <v>6200137230.134559</v>
+        <v>8012933445.607208</v>
       </c>
       <c r="V176">
-        <v>7.906071290215309</v>
+        <v>11.00183251049041</v>
       </c>
       <c r="W176">
-        <v>1.363441320076485</v>
+        <v>1.897320741330543</v>
       </c>
       <c r="X176">
-        <v>11.09533355892714</v>
+        <v>14.63800137658897</v>
       </c>
     </row>
     <row r="177">
@@ -7947,13 +7893,13 @@
         </is>
       </c>
       <c r="C177">
-        <v>283677273.7401372</v>
+        <v>272277680.3868</v>
       </c>
       <c r="D177">
         <v>275128569.9242944</v>
       </c>
       <c r="E177">
-        <v>558805843.6644316</v>
+        <v>547406250.3110944</v>
       </c>
       <c r="F177">
         <v>2193.249209578293</v>
@@ -7968,6 +7914,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I177">
+        <v>3075.537976022191</v>
+      </c>
       <c r="J177">
         <v>0.03885231180582566</v>
       </c>
@@ -7977,19 +7926,40 @@
       <c r="L177">
         <v>1.761519183638594</v>
       </c>
+      <c r="M177">
+        <v>7188682569.964593</v>
+      </c>
       <c r="N177">
-        <v>473478659.3527283</v>
+        <v>496483731.05198</v>
       </c>
       <c r="O177">
-        <v>15223687757.08566</v>
+        <v>17002880000</v>
       </c>
       <c r="P177">
         <v>0.117066142</v>
       </c>
+      <c r="Q177">
+        <v>4154791295.016011</v>
+      </c>
       <c r="S177" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T177">
+        <v>7685168494.265782</v>
+      </c>
+      <c r="U177">
+        <v>9675630058.754742</v>
+      </c>
+      <c r="V177">
+        <v>14.03924140416419</v>
+      </c>
+      <c r="W177">
+        <v>2.421137013608282</v>
+      </c>
+      <c r="X177">
+        <v>17.67541027026275</v>
       </c>
     </row>
     <row r="178">
@@ -8002,13 +7972,13 @@
         </is>
       </c>
       <c r="C178">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="D178">
         <v>292986853.2909729</v>
       </c>
       <c r="E178">
-        <v>589432535.0085759</v>
+        <v>573618815.8623729</v>
       </c>
       <c r="F178">
         <v>2450.768900537212</v>
@@ -8024,7 +7994,7 @@
         </is>
       </c>
       <c r="I178">
-        <v>3925.191497818515</v>
+        <v>2312.674664429313</v>
       </c>
       <c r="J178">
         <v>0.03843839330276964</v>
@@ -8036,36 +8006,39 @@
         <v>1.793957717969458</v>
       </c>
       <c r="M178">
-        <v>3481227266.34364</v>
+        <v>4703551947.120807</v>
       </c>
       <c r="N178">
-        <v>341691702.4054841</v>
+        <v>319464255.5734137</v>
       </c>
       <c r="O178">
-        <v>24823195548.66564</v>
+        <v>18999268000</v>
       </c>
       <c r="P178">
         <v>0.114123054</v>
       </c>
+      <c r="Q178">
+        <v>2205505361.877827</v>
+      </c>
       <c r="S178" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
       </c>
       <c r="T178">
-        <v>3822921419.518024</v>
+        <v>5023018653.463121</v>
       </c>
       <c r="U178">
-        <v>6655820305.570953</v>
+        <v>7191273141.387593</v>
       </c>
       <c r="V178">
-        <v>6.485765872191638</v>
+        <v>8.756718773095971</v>
       </c>
       <c r="W178">
-        <v>1.118502585909159</v>
+        <v>1.510139709757584</v>
       </c>
       <c r="X178">
-        <v>11.29191198357267</v>
+        <v>12.53667582465248</v>
       </c>
     </row>
     <row r="179">
@@ -8078,13 +8051,13 @@
         </is>
       </c>
       <c r="C179">
-        <v>296445681.717603</v>
+        <v>280631962.5714</v>
       </c>
       <c r="D179">
         <v>292986853.2909729</v>
       </c>
       <c r="E179">
-        <v>589432535.0085759</v>
+        <v>573618815.8623729</v>
       </c>
       <c r="F179">
         <v>2450.768900537212</v>
@@ -8099,6 +8072,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I179">
+        <v>3369.544232953415</v>
+      </c>
       <c r="J179">
         <v>0.03843839330276964</v>
       </c>
@@ -8108,19 +8084,40 @@
       <c r="L179">
         <v>1.793957717969458</v>
       </c>
+      <c r="M179">
+        <v>5964432465.806273</v>
+      </c>
       <c r="N179">
-        <v>443022025.2903503</v>
+        <v>448714200.4334328</v>
       </c>
       <c r="O179">
-        <v>24823195548.66564</v>
+        <v>18999268000</v>
       </c>
       <c r="P179">
         <v>0.114123054</v>
       </c>
+      <c r="Q179">
+        <v>2205505361.877827</v>
+      </c>
       <c r="S179" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T179">
+        <v>6413149117.008606</v>
+      </c>
+      <c r="U179">
+        <v>8581403604.933078</v>
+      </c>
+      <c r="V179">
+        <v>11.18015821598729</v>
+      </c>
+      <c r="W179">
+        <v>1.928073896264416</v>
+      </c>
+      <c r="X179">
+        <v>14.9601152675438</v>
       </c>
     </row>
     <row r="180">
@@ -8133,13 +8130,13 @@
         </is>
       </c>
       <c r="C180">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="D180">
         <v>283186457.8854652</v>
       </c>
       <c r="E180">
-        <v>575649279.2935324</v>
+        <v>559689726.5490651</v>
       </c>
       <c r="F180">
         <v>3927.818961227893</v>
@@ -8155,7 +8152,7 @@
         </is>
       </c>
       <c r="I180">
-        <v>12994.86776641399</v>
+        <v>9940.247751743851</v>
       </c>
       <c r="J180">
         <v>0.04838182825389188</v>
@@ -8167,36 +8164,39 @@
         <v>2.347955579367929</v>
       </c>
       <c r="M180">
-        <v>1784825476.895646</v>
+        <v>2385838161.672322</v>
       </c>
       <c r="N180">
-        <v>273269553.2230429</v>
+        <v>252773034.8558605</v>
       </c>
       <c r="O180">
-        <v>8203917853.770949</v>
+        <v>9697422611.464968</v>
       </c>
       <c r="P180">
         <v>0.188701126</v>
       </c>
+      <c r="Q180">
+        <v>-821506497.2391669</v>
+      </c>
       <c r="S180" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
       </c>
       <c r="T180">
-        <v>2058098957.93765</v>
+        <v>2638615124.347144</v>
       </c>
       <c r="U180">
-        <v>3606187494.555731</v>
+        <v>4468529690.428444</v>
       </c>
       <c r="V180">
-        <v>3.575265412411285</v>
+        <v>4.714424794995464</v>
       </c>
       <c r="W180">
-        <v>0.6165723043194427</v>
+        <v>0.8130260062093214</v>
       </c>
       <c r="X180">
-        <v>6.264556604642045</v>
+        <v>7.983940884497745</v>
       </c>
     </row>
     <row r="181">
@@ -8209,13 +8209,13 @@
         </is>
       </c>
       <c r="C181">
-        <v>292462821.4080672</v>
+        <v>276503268.6636</v>
       </c>
       <c r="D181">
         <v>283186457.8854652</v>
       </c>
       <c r="E181">
-        <v>575649279.2935324</v>
+        <v>559689726.5490651</v>
       </c>
       <c r="F181">
         <v>3927.818961227893</v>
@@ -8230,6 +8230,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I181">
+        <v>14263.02738275667</v>
+      </c>
       <c r="J181">
         <v>0.04838182825389188</v>
       </c>
@@ -8239,19 +8242,40 @@
       <c r="L181">
         <v>2.347955579367929</v>
       </c>
+      <c r="M181">
+        <v>3025409467.062161</v>
+      </c>
       <c r="N181">
-        <v>354308957.656206</v>
+        <v>355040816.7664781</v>
       </c>
       <c r="O181">
-        <v>8203917853.770949</v>
+        <v>9697422611.464968</v>
       </c>
       <c r="P181">
         <v>0.188701126</v>
       </c>
+      <c r="Q181">
+        <v>-821506497.2391669</v>
+      </c>
       <c r="S181" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T181">
+        <v>3380454211.647601</v>
+      </c>
+      <c r="U181">
+        <v>5210368777.728901</v>
+      </c>
+      <c r="V181">
+        <v>6.039871827719271</v>
+      </c>
+      <c r="W181">
+        <v>1.041605939990717</v>
+      </c>
+      <c r="X181">
+        <v>9.309387917221551</v>
       </c>
     </row>
     <row r="182">
@@ -8264,13 +8288,13 @@
         </is>
       </c>
       <c r="C182">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="D182">
         <v>310515266.9349914</v>
       </c>
       <c r="E182">
-        <v>596441392.3423325</v>
+        <v>580706545.1841915</v>
       </c>
       <c r="F182">
         <v>3710.739805031019</v>
@@ -8286,7 +8310,7 @@
         </is>
       </c>
       <c r="I182">
-        <v>13965.78972162923</v>
+        <v>10242.81229569787</v>
       </c>
       <c r="J182">
         <v>0.05488572451056611</v>
@@ -8298,36 +8322,39 @@
         <v>2.485686063511499</v>
       </c>
       <c r="M182">
-        <v>2335028227.381641</v>
+        <v>3087219394.006584</v>
       </c>
       <c r="N182">
-        <v>327624848.1877371</v>
+        <v>299741214.8441941</v>
       </c>
       <c r="O182">
-        <v>9922752476.202242</v>
+        <v>9818098634.812286</v>
       </c>
       <c r="P182">
         <v>0.195745529</v>
       </c>
+      <c r="Q182">
+        <v>4328166.982024263</v>
+      </c>
       <c r="S182" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
       </c>
       <c r="T182">
-        <v>2662656786.309184</v>
+        <v>3386964319.590583</v>
       </c>
       <c r="U182">
-        <v>4604991218.899451</v>
+        <v>5308813230.636091</v>
       </c>
       <c r="V182">
-        <v>4.464238767622167</v>
+        <v>5.832488625586763</v>
       </c>
       <c r="W182">
-        <v>0.7698801813229826</v>
+        <v>1.005841675225336</v>
       </c>
       <c r="X182">
-        <v>7.720777394095376</v>
+        <v>9.14198965839487</v>
       </c>
     </row>
     <row r="183">
@@ -8340,13 +8367,13 @@
         </is>
       </c>
       <c r="C183">
-        <v>285926125.4073411</v>
+        <v>270191278.2492</v>
       </c>
       <c r="D183">
         <v>310515266.9349914</v>
       </c>
       <c r="E183">
-        <v>596441392.3423325</v>
+        <v>580706545.1841915</v>
       </c>
       <c r="F183">
         <v>3710.739805031019</v>
@@ -8361,6 +8388,9 @@
           <t>Empalme CCNN</t>
         </is>
       </c>
+      <c r="I183">
+        <v>14720.07556200538</v>
+      </c>
       <c r="J183">
         <v>0.05488572451056611</v>
       </c>
@@ -8370,19 +8400,40 @@
       <c r="L183">
         <v>2.485686063511499</v>
       </c>
+      <c r="M183">
+        <v>3914809869.156676</v>
+      </c>
       <c r="N183">
-        <v>424783577.5869436</v>
+        <v>421011544.2002881</v>
       </c>
       <c r="O183">
-        <v>9922752476.202242</v>
+        <v>9818098634.812286</v>
       </c>
       <c r="P183">
         <v>0.195745529</v>
       </c>
+      <c r="Q183">
+        <v>4328166.982024263</v>
+      </c>
       <c r="S183" t="inlineStr">
         <is>
           <t>USD/boe</t>
         </is>
+      </c>
+      <c r="T183">
+        <v>4335825124.096769</v>
+      </c>
+      <c r="U183">
+        <v>6257674035.142279</v>
+      </c>
+      <c r="V183">
+        <v>7.466465050297496</v>
+      </c>
+      <c r="W183">
+        <v>1.287629037330034</v>
+      </c>
+      <c r="X183">
+        <v>10.7759660831056</v>
       </c>
     </row>
     <row r="184">
@@ -8395,13 +8446,13 @@
         </is>
       </c>
       <c r="C184">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D184">
         <v>317803418.7991207</v>
       </c>
       <c r="E184">
-        <v>586702614.3952322</v>
+        <v>572118575.1295207</v>
       </c>
       <c r="F184">
         <v>3909.674833067294</v>
@@ -8417,7 +8468,7 @@
         </is>
       </c>
       <c r="I184">
-        <v>18303.09300441898</v>
+        <v>18526.52779493787</v>
       </c>
       <c r="J184">
         <v>0.05730932328517764</v>
@@ -8429,19 +8480,19 @@
         <v>2.575290122734927</v>
       </c>
       <c r="M184">
-        <v>4064697923.801794</v>
+        <v>4112358163.435134</v>
       </c>
       <c r="N184">
         <v>256831668.6972637</v>
       </c>
       <c r="O184">
-        <v>17172254344.50449</v>
+        <v>10344452901.02389</v>
       </c>
       <c r="P184">
         <v>0.185661556</v>
       </c>
       <c r="Q184">
-        <v>1022953347.243733</v>
+        <v>1790650123.996203</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -8449,19 +8500,19 @@
         </is>
       </c>
       <c r="T184">
-        <v>4321533502.173891</v>
+        <v>4369193741.807231</v>
       </c>
       <c r="U184">
-        <v>7509760963.802355</v>
+        <v>6289760963.38004</v>
       </c>
       <c r="V184">
-        <v>7.365798951873581</v>
+        <v>7.636867481217681</v>
       </c>
       <c r="W184">
-        <v>1.270268667927355</v>
+        <v>1.317015784151505</v>
       </c>
       <c r="X184">
-        <v>12.79994460488871</v>
+        <v>10.99380659325056</v>
       </c>
     </row>
     <row r="185">
@@ -8474,13 +8525,13 @@
         </is>
       </c>
       <c r="C185">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D185">
         <v>317803418.7991207</v>
       </c>
       <c r="E185">
-        <v>586702614.3952322</v>
+        <v>572118575.1295207</v>
       </c>
       <c r="F185">
         <v>3909.674833067294</v>
@@ -8496,7 +8547,7 @@
         </is>
       </c>
       <c r="I185">
-        <v>13428.69932497033</v>
+        <v>12428.41649749842</v>
       </c>
       <c r="J185">
         <v>0.05730932328517764</v>
@@ -8508,19 +8559,19 @@
         <v>2.575290122734927</v>
       </c>
       <c r="M185">
-        <v>3513212402.685597</v>
+        <v>3243005995.586994</v>
       </c>
       <c r="N185">
-        <v>373523032.3355444</v>
+        <v>340798813.7003552</v>
       </c>
       <c r="O185">
-        <v>17172254344.50449</v>
+        <v>10344452901.02389</v>
       </c>
       <c r="P185">
         <v>0.185661556</v>
       </c>
       <c r="Q185">
-        <v>1022953347.243733</v>
+        <v>1790650123.996203</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -8528,19 +8579,19 @@
         </is>
       </c>
       <c r="T185">
-        <v>3886739344.695974</v>
+        <v>3583808718.962183</v>
       </c>
       <c r="U185">
-        <v>7074966806.324438</v>
+        <v>5504375940.534992</v>
       </c>
       <c r="V185">
-        <v>6.624717956476792</v>
+        <v>6.264101315275164</v>
       </c>
       <c r="W185">
-        <v>1.142465564014302</v>
+        <v>1.080275430473512</v>
       </c>
       <c r="X185">
-        <v>12.05886360949192</v>
+        <v>9.621040427308044</v>
       </c>
     </row>
     <row r="186">
@@ -8553,13 +8604,13 @@
         </is>
       </c>
       <c r="C186">
-        <v>268899195.5961115</v>
+        <v>254315156.3304</v>
       </c>
       <c r="D186">
         <v>317803418.7991207</v>
       </c>
       <c r="E186">
-        <v>586702614.3952322</v>
+        <v>572118575.1295207</v>
       </c>
       <c r="F186">
         <v>3909.674833067294</v>
@@ -8575,7 +8626,7 @@
         </is>
       </c>
       <c r="I186">
-        <v>18303.09300441898</v>
+        <v>18526.52779493787</v>
       </c>
       <c r="J186">
         <v>0.05730932328517764</v>
@@ -8587,19 +8638,19 @@
         <v>2.575290122734927</v>
       </c>
       <c r="M186">
-        <v>4064697923.801794</v>
+        <v>4112358163.435134</v>
       </c>
       <c r="N186">
         <v>256831668.6972637</v>
       </c>
       <c r="O186">
-        <v>17172254344.50449</v>
+        <v>10344452901.02389</v>
       </c>
       <c r="P186">
         <v>0.185661556</v>
       </c>
       <c r="Q186">
-        <v>1022953347.243733</v>
+        <v>1790650123.996203</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -8607,19 +8658,19 @@
         </is>
       </c>
       <c r="T186">
-        <v>4321533502.173891</v>
+        <v>4369193741.807231</v>
       </c>
       <c r="U186">
-        <v>7509760963.802355</v>
+        <v>6289760963.38004</v>
       </c>
       <c r="V186">
-        <v>7.365798951873581</v>
+        <v>7.636867481217681</v>
       </c>
       <c r="W186">
-        <v>1.270268667927355</v>
+        <v>1.317015784151505</v>
       </c>
       <c r="X186">
-        <v>12.79994460488871</v>
+        <v>10.99380659325056</v>
       </c>
     </row>
     <row r="187">
@@ -8632,13 +8683,13 @@
         </is>
       </c>
       <c r="C187">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D187">
         <v>312474060.5814624</v>
       </c>
       <c r="E187">
-        <v>569943982.8631938</v>
+        <v>555087150.9384625</v>
       </c>
       <c r="F187">
         <v>4561.970945620762</v>
@@ -8654,7 +8705,7 @@
         </is>
       </c>
       <c r="I187">
-        <v>21035.03543357399</v>
+        <v>21293.16651891972</v>
       </c>
       <c r="J187">
         <v>0.06283489501643001</v>
@@ -8666,19 +8717,19 @@
         <v>2.908372717514005</v>
       </c>
       <c r="M187">
-        <v>4499188932.701431</v>
+        <v>4551943756.481216</v>
       </c>
       <c r="N187">
         <v>334530187.9767578</v>
       </c>
       <c r="O187">
-        <v>11330939297.46811</v>
+        <v>12076863378.95905</v>
       </c>
       <c r="P187">
         <v>0.181745386</v>
       </c>
       <c r="Q187">
-        <v>6124633256.673179</v>
+        <v>5243192116.727727</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -8686,19 +8737,19 @@
         </is>
       </c>
       <c r="T187">
-        <v>4833723682.649135</v>
+        <v>4886478506.428919</v>
       </c>
       <c r="U187">
-        <v>6893069619.010044</v>
+        <v>7081392702.907095</v>
       </c>
       <c r="V187">
-        <v>8.481050468093802</v>
+        <v>8.803083440442739</v>
       </c>
       <c r="W187">
-        <v>1.462599339341171</v>
+        <v>1.518135527266897</v>
       </c>
       <c r="X187">
-        <v>12.09429316962299</v>
+        <v>12.75726287473036</v>
       </c>
     </row>
     <row r="188">
@@ -8711,13 +8762,13 @@
         </is>
       </c>
       <c r="C188">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D188">
         <v>312474060.5814624</v>
       </c>
       <c r="E188">
-        <v>569943982.8631938</v>
+        <v>555087150.9384625</v>
       </c>
       <c r="F188">
         <v>4561.970945620762</v>
@@ -8733,7 +8784,7 @@
         </is>
       </c>
       <c r="I188">
-        <v>16475.41711847213</v>
+        <v>15211.19752065063</v>
       </c>
       <c r="J188">
         <v>0.06283489501643001</v>
@@ -8745,19 +8796,19 @@
         <v>2.908372717514005</v>
       </c>
       <c r="M188">
-        <v>4114546632.987876</v>
+        <v>3789074397.201603</v>
       </c>
       <c r="N188">
-        <v>449377895.1127213</v>
+        <v>409034738.0123624</v>
       </c>
       <c r="O188">
-        <v>11330939297.46811</v>
+        <v>12076863378.95905</v>
       </c>
       <c r="P188">
         <v>0.181745386</v>
       </c>
       <c r="Q188">
-        <v>6124633256.673179</v>
+        <v>5243192116.727727</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -8765,19 +8816,19 @@
         </is>
       </c>
       <c r="T188">
-        <v>4563929090.071542</v>
+        <v>4198113697.184911</v>
       </c>
       <c r="U188">
-        <v>6623275026.432451</v>
+        <v>6393027893.663088</v>
       </c>
       <c r="V188">
-        <v>8.007680100672355</v>
+        <v>7.562981218511971</v>
       </c>
       <c r="W188">
-        <v>1.38096426485848</v>
+        <v>1.30427373062567</v>
       </c>
       <c r="X188">
-        <v>11.62092280220154</v>
+        <v>11.51716065279959</v>
       </c>
     </row>
     <row r="189">
@@ -8790,13 +8841,13 @@
         </is>
       </c>
       <c r="C189">
-        <v>257469922.2817313</v>
+        <v>242613090.357</v>
       </c>
       <c r="D189">
         <v>312474060.5814624</v>
       </c>
       <c r="E189">
-        <v>569943982.8631938</v>
+        <v>555087150.9384625</v>
       </c>
       <c r="F189">
         <v>4561.970945620762</v>
@@ -8812,7 +8863,7 @@
         </is>
       </c>
       <c r="I189">
-        <v>21035.03543357399</v>
+        <v>21293.16651891972</v>
       </c>
       <c r="J189">
         <v>0.06283489501643001</v>
@@ -8824,19 +8875,19 @@
         <v>2.908372717514005</v>
       </c>
       <c r="M189">
-        <v>4499188932.701431</v>
+        <v>4551943756.481216</v>
       </c>
       <c r="N189">
         <v>334530187.9767578</v>
       </c>
       <c r="O189">
-        <v>11330939297.46811</v>
+        <v>12076863378.95905</v>
       </c>
       <c r="P189">
         <v>0.181745386</v>
       </c>
       <c r="Q189">
-        <v>6124633256.673179</v>
+        <v>5243192116.727727</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -8844,19 +8895,19 @@
         </is>
       </c>
       <c r="T189">
-        <v>4833723682.649135</v>
+        <v>4886478506.428919</v>
       </c>
       <c r="U189">
-        <v>6893069619.010044</v>
+        <v>7081392702.907095</v>
       </c>
       <c r="V189">
-        <v>8.481050468093802</v>
+        <v>8.803083440442739</v>
       </c>
       <c r="W189">
-        <v>1.462599339341171</v>
+        <v>1.518135527266897</v>
       </c>
       <c r="X189">
-        <v>12.09429316962299</v>
+        <v>12.75726287473036</v>
       </c>
     </row>
     <row r="190">
@@ -8869,13 +8920,13 @@
         </is>
       </c>
       <c r="C190">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D190">
         <v>314518351.9493821</v>
       </c>
       <c r="E190">
-        <v>568699769.5744343</v>
+        <v>555709123.542582</v>
       </c>
       <c r="F190">
         <v>5060.15432154359</v>
@@ -8891,7 +8942,7 @@
         </is>
       </c>
       <c r="I190">
-        <v>28320.49707685488</v>
+        <v>28667.62488414861</v>
       </c>
       <c r="J190">
         <v>0.0696825181531</v>
@@ -8903,7 +8954,7 @@
         <v>3.093120137663417</v>
       </c>
       <c r="M190">
-        <v>5988814887.530442</v>
+        <v>6059036182.694348</v>
       </c>
       <c r="N190">
         <v>417271410.6647519</v>
@@ -8915,7 +8966,7 @@
         <v>0.179536264</v>
       </c>
       <c r="Q190">
-        <v>8596158050.830151</v>
+        <v>7778107781.341459</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -8923,19 +8974,19 @@
         </is>
       </c>
       <c r="T190">
-        <v>6406091358.349516</v>
+        <v>6476312653.513422</v>
       </c>
       <c r="U190">
-        <v>8694413241.570103</v>
+        <v>8764634536.734009</v>
       </c>
       <c r="V190">
-        <v>11.26445217859554</v>
+        <v>11.65414131088522</v>
       </c>
       <c r="W190">
-        <v>1.942610809408029</v>
+        <v>2.009814638648232</v>
       </c>
       <c r="X190">
-        <v>15.28823063894724</v>
+        <v>15.77198243725147</v>
       </c>
     </row>
     <row r="191">
@@ -8948,13 +8999,13 @@
         </is>
       </c>
       <c r="C191">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D191">
         <v>314518351.9493821</v>
       </c>
       <c r="E191">
-        <v>568699769.5744343</v>
+        <v>555709123.542582</v>
       </c>
       <c r="F191">
         <v>5060.15432154359</v>
@@ -8970,7 +9021,7 @@
         </is>
       </c>
       <c r="I191">
-        <v>18656.65211912045</v>
+        <v>17798.67905058356</v>
       </c>
       <c r="J191">
         <v>0.0696825181531</v>
@@ -8982,10 +9033,10 @@
         <v>3.093120137663417</v>
       </c>
       <c r="M191">
-        <v>4627365958.059561</v>
+        <v>4403027996.002614</v>
       </c>
       <c r="N191">
-        <v>493138933.2040836</v>
+        <v>463793047.7665004</v>
       </c>
       <c r="O191">
         <v>12745736333.36041</v>
@@ -8994,7 +9045,7 @@
         <v>0.179536264</v>
       </c>
       <c r="Q191">
-        <v>8596158050.830151</v>
+        <v>7778107781.341459</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -9002,19 +9053,19 @@
         </is>
       </c>
       <c r="T191">
-        <v>5120509951.417966</v>
+        <v>4866826103.923436</v>
       </c>
       <c r="U191">
-        <v>7408831834.638553</v>
+        <v>7155147987.144023</v>
       </c>
       <c r="V191">
-        <v>9.003889618681773</v>
+        <v>8.757866116895791</v>
       </c>
       <c r="W191">
-        <v>1.552765551546667</v>
+        <v>1.510337574902936</v>
       </c>
       <c r="X191">
-        <v>13.02766807903348</v>
+        <v>12.87570724326204</v>
       </c>
     </row>
     <row r="192">
@@ -9027,13 +9078,13 @@
         </is>
       </c>
       <c r="C192">
-        <v>254181417.6250523</v>
+        <v>241190771.5932</v>
       </c>
       <c r="D192">
         <v>314518351.9493821</v>
       </c>
       <c r="E192">
-        <v>568699769.5744343</v>
+        <v>555709123.542582</v>
       </c>
       <c r="F192">
         <v>5060.15432154359</v>
@@ -9049,7 +9100,7 @@
         </is>
       </c>
       <c r="I192">
-        <v>28320.49707685488</v>
+        <v>28667.62488414861</v>
       </c>
       <c r="J192">
         <v>0.0696825181531</v>
@@ -9061,7 +9112,7 @@
         <v>3.093120137663417</v>
       </c>
       <c r="M192">
-        <v>5988814887.530442</v>
+        <v>6059036182.694347</v>
       </c>
       <c r="N192">
         <v>417271410.6647519</v>
@@ -9073,7 +9124,7 @@
         <v>0.179536264</v>
       </c>
       <c r="Q192">
-        <v>8596158050.830151</v>
+        <v>7778107781.341459</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -9081,19 +9132,19 @@
         </is>
       </c>
       <c r="T192">
-        <v>6406091358.349516</v>
+        <v>6476312653.513421</v>
       </c>
       <c r="U192">
-        <v>8694413241.570103</v>
+        <v>8764634536.734009</v>
       </c>
       <c r="V192">
-        <v>11.26445217859554</v>
+        <v>11.65414131088522</v>
       </c>
       <c r="W192">
-        <v>1.942610809408029</v>
+        <v>2.009814638648232</v>
       </c>
       <c r="X192">
-        <v>15.28823063894724</v>
+        <v>15.77198243725147</v>
       </c>
     </row>
     <row r="193">
@@ -9106,13 +9157,13 @@
         </is>
       </c>
       <c r="C193">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D193">
         <v>310423805.5164772</v>
       </c>
       <c r="E193">
-        <v>558196836.1561737</v>
+        <v>548835951.0330771</v>
       </c>
       <c r="F193">
         <v>5284.848568071481</v>
@@ -9128,7 +9179,7 @@
         </is>
       </c>
       <c r="I193">
-        <v>26236.06184969645</v>
+        <v>26564.44283056546</v>
       </c>
       <c r="J193">
         <v>0.07879872942360158</v>
@@ -9140,19 +9191,19 @@
         <v>3.431279310742555</v>
       </c>
       <c r="M193">
-        <v>7086561378.412207</v>
+        <v>7169654198.543742</v>
       </c>
       <c r="N193">
         <v>567418037.1882534</v>
       </c>
       <c r="O193">
-        <v>17071686659.01813</v>
+        <v>13134951536.20091</v>
       </c>
       <c r="P193">
         <v>0.177969154</v>
       </c>
       <c r="Q193">
-        <v>10176093119.17019</v>
+        <v>10162408199.86583</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -9160,19 +9211,19 @@
         </is>
       </c>
       <c r="T193">
-        <v>7653984700.449028</v>
+        <v>7737077520.580564</v>
       </c>
       <c r="U193">
-        <v>10692218332.50757</v>
+        <v>10074693733.30924</v>
       </c>
       <c r="V193">
-        <v>13.71198151740792</v>
+        <v>14.09724983579705</v>
       </c>
       <c r="W193">
-        <v>2.364699418293492</v>
+        <v>2.431140856186701</v>
       </c>
       <c r="X193">
-        <v>19.1549246429553</v>
+        <v>18.35647558135647</v>
       </c>
     </row>
     <row r="194">
@@ -9185,13 +9236,13 @@
         </is>
       </c>
       <c r="C194">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D194">
         <v>310423805.5164772</v>
       </c>
       <c r="E194">
-        <v>558196836.1561737</v>
+        <v>548835951.0330771</v>
       </c>
       <c r="F194">
         <v>5284.848568071481</v>
@@ -9207,7 +9258,7 @@
         </is>
       </c>
       <c r="I194">
-        <v>16744.11014880217</v>
+        <v>16341.59639542332</v>
       </c>
       <c r="J194">
         <v>0.07879872942360158</v>
@@ -9219,19 +9270,19 @@
         <v>3.431279310742555</v>
       </c>
       <c r="M194">
-        <v>5318293825.800149</v>
+        <v>5175138428.323735</v>
       </c>
       <c r="N194">
-        <v>493013484.2109613</v>
+        <v>474182786.6225742</v>
       </c>
       <c r="O194">
-        <v>17071686659.01813</v>
+        <v>13134951536.20091</v>
       </c>
       <c r="P194">
         <v>0.177969154</v>
       </c>
       <c r="Q194">
-        <v>10176093119.17019</v>
+        <v>10162408199.86583</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -9239,19 +9290,19 @@
         </is>
       </c>
       <c r="T194">
-        <v>5811312594.859678</v>
+        <v>5649326499.794877</v>
       </c>
       <c r="U194">
-        <v>8849546226.918222</v>
+        <v>7986942712.523553</v>
       </c>
       <c r="V194">
-        <v>10.41086623650044</v>
+        <v>10.29328798370645</v>
       </c>
       <c r="W194">
-        <v>1.79540566781903</v>
+        <v>1.775128713271437</v>
       </c>
       <c r="X194">
-        <v>15.85380936204783</v>
+        <v>14.55251372926588</v>
       </c>
     </row>
     <row r="195">
@@ -9264,13 +9315,13 @@
         </is>
       </c>
       <c r="C195">
-        <v>247773030.6396965</v>
+        <v>238412145.5166</v>
       </c>
       <c r="D195">
         <v>310423805.5164772</v>
       </c>
       <c r="E195">
-        <v>558196836.1561737</v>
+        <v>548835951.0330771</v>
       </c>
       <c r="F195">
         <v>5284.848568071481</v>
@@ -9286,7 +9337,7 @@
         </is>
       </c>
       <c r="I195">
-        <v>26236.06184969645</v>
+        <v>26564.44283056546</v>
       </c>
       <c r="J195">
         <v>0.07879872942360158</v>
@@ -9298,19 +9349,19 @@
         <v>3.431279310742555</v>
       </c>
       <c r="M195">
-        <v>7086561378.412207</v>
+        <v>7169654198.543742</v>
       </c>
       <c r="N195">
         <v>567418037.1882534</v>
       </c>
       <c r="O195">
-        <v>17071686659.01813</v>
+        <v>13134951536.20091</v>
       </c>
       <c r="P195">
         <v>0.177969154</v>
       </c>
       <c r="Q195">
-        <v>10176093119.17019</v>
+        <v>10162408199.86583</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -9318,19 +9369,19 @@
         </is>
       </c>
       <c r="T195">
-        <v>7653984700.449028</v>
+        <v>7737077520.580564</v>
       </c>
       <c r="U195">
-        <v>10692218332.50757</v>
+        <v>10074693733.30924</v>
       </c>
       <c r="V195">
-        <v>13.71198151740792</v>
+        <v>14.09724983579705</v>
       </c>
       <c r="W195">
-        <v>2.364699418293492</v>
+        <v>2.431140856186701</v>
       </c>
       <c r="X195">
-        <v>19.1549246429553</v>
+        <v>18.35647558135647</v>
       </c>
     </row>
     <row r="196">
@@ -9343,13 +9394,13 @@
         </is>
       </c>
       <c r="C196">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D196">
         <v>306266972.796119</v>
       </c>
       <c r="E196">
-        <v>548303110.5810942</v>
+        <v>542719084.546919</v>
       </c>
       <c r="F196">
         <v>5925.929530057659</v>
@@ -9365,7 +9416,7 @@
         </is>
       </c>
       <c r="I196">
-        <v>28461.24975336946</v>
+        <v>28823.90697381736</v>
       </c>
       <c r="J196">
         <v>0.09663971229154263</v>
@@ -9377,19 +9428,19 @@
         <v>3.887175422993697</v>
       </c>
       <c r="M196">
-        <v>8283730654.713408</v>
+        <v>8380860772.489147</v>
       </c>
       <c r="N196">
         <v>775306114.2958537</v>
       </c>
       <c r="O196">
-        <v>20731056391.3692</v>
+        <v>14432169223.51956</v>
       </c>
       <c r="P196">
         <v>0.177329043</v>
       </c>
       <c r="Q196">
-        <v>28802822489.08886</v>
+        <v>29255603946.53045</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -9397,19 +9448,19 @@
         </is>
       </c>
       <c r="T196">
-        <v>9059042694.938791</v>
+        <v>9156172812.714531</v>
       </c>
       <c r="U196">
-        <v>12735261085.19933</v>
+        <v>11715415569.53531</v>
       </c>
       <c r="V196">
-        <v>16.52196115637202</v>
+        <v>16.87092470750025</v>
       </c>
       <c r="W196">
-        <v>2.849294384326606</v>
+        <v>2.909474884519881</v>
       </c>
       <c r="X196">
-        <v>23.22668035149835</v>
+        <v>21.58651851964216</v>
       </c>
     </row>
     <row r="197">
@@ -9422,13 +9473,13 @@
         </is>
       </c>
       <c r="C197">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D197">
         <v>306266972.796119</v>
       </c>
       <c r="E197">
-        <v>548303110.5810942</v>
+        <v>542719084.546919</v>
       </c>
       <c r="F197">
         <v>5925.929530057659</v>
@@ -9444,7 +9495,7 @@
         </is>
       </c>
       <c r="I197">
-        <v>18048.95668139454</v>
+        <v>17992.34843768722</v>
       </c>
       <c r="J197">
         <v>0.09663971229154263</v>
@@ -9456,19 +9507,19 @@
         <v>3.887175422993697</v>
       </c>
       <c r="M197">
-        <v>6123113564.933777</v>
+        <v>6085102905.412651</v>
       </c>
       <c r="N197">
-        <v>544075658.8028032</v>
+        <v>534431751.8172228</v>
       </c>
       <c r="O197">
-        <v>20731056391.3692</v>
+        <v>14432169223.51956</v>
       </c>
       <c r="P197">
         <v>0.177329043</v>
       </c>
       <c r="Q197">
-        <v>28802822489.08886</v>
+        <v>29255603946.53045</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -9476,19 +9527,19 @@
         </is>
       </c>
       <c r="T197">
-        <v>6667195149.66611</v>
+        <v>6619540583.159404</v>
       </c>
       <c r="U197">
-        <v>10343413539.92664</v>
+        <v>9178783339.980179</v>
       </c>
       <c r="V197">
-        <v>12.15968872144494</v>
+        <v>12.19699246192094</v>
       </c>
       <c r="W197">
-        <v>2.096998804273942</v>
+        <v>2.103432019873873</v>
       </c>
       <c r="X197">
-        <v>18.86440791657127</v>
+        <v>16.91258627406285</v>
       </c>
     </row>
     <row r="198">
@@ -9501,13 +9552,13 @@
         </is>
       </c>
       <c r="C198">
-        <v>242036137.7849751</v>
+        <v>236452111.7508</v>
       </c>
       <c r="D198">
         <v>306266972.796119</v>
       </c>
       <c r="E198">
-        <v>548303110.5810942</v>
+        <v>542719084.546919</v>
       </c>
       <c r="F198">
         <v>5925.929530057659</v>
@@ -9523,7 +9574,7 @@
         </is>
       </c>
       <c r="I198">
-        <v>28461.24975336946</v>
+        <v>28823.90697381736</v>
       </c>
       <c r="J198">
         <v>0.09663971229154263</v>
@@ -9535,19 +9586,19 @@
         <v>3.887175422993697</v>
       </c>
       <c r="M198">
-        <v>8283730654.713408</v>
+        <v>8380860772.48915</v>
       </c>
       <c r="N198">
         <v>775306114.2958537</v>
       </c>
       <c r="O198">
-        <v>20731056391.3692</v>
+        <v>14432169223.51956</v>
       </c>
       <c r="P198">
         <v>0.177329043</v>
       </c>
       <c r="Q198">
-        <v>28802822489.08886</v>
+        <v>29255603946.53045</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -9555,19 +9606,19 @@
         </is>
       </c>
       <c r="T198">
-        <v>9059042694.938791</v>
+        <v>9156172812.714533</v>
       </c>
       <c r="U198">
-        <v>12735261085.19933</v>
+        <v>11715415569.53531</v>
       </c>
       <c r="V198">
-        <v>16.52196115637202</v>
+        <v>16.87092470750025</v>
       </c>
       <c r="W198">
-        <v>2.849294384326606</v>
+        <v>2.909474884519881</v>
       </c>
       <c r="X198">
-        <v>23.22668035149835</v>
+        <v>21.58651851964217</v>
       </c>
     </row>
     <row r="199">
@@ -9580,13 +9631,13 @@
         </is>
       </c>
       <c r="C199">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D199">
         <v>294759932.2976729</v>
       </c>
       <c r="E199">
-        <v>515104426.2476072</v>
+        <v>522701913.1994728</v>
       </c>
       <c r="F199">
         <v>6366.052985794636</v>
@@ -9602,7 +9653,7 @@
         </is>
       </c>
       <c r="I199">
-        <v>32874.99803262352</v>
+        <v>33295.4688696335</v>
       </c>
       <c r="J199">
         <v>0.1109890069686252</v>
@@ -9614,19 +9665,19 @@
         <v>4.244863935900098</v>
       </c>
       <c r="M199">
-        <v>6870769758.553014</v>
+        <v>6951332334.000651</v>
       </c>
       <c r="N199">
         <v>795948741.2161559</v>
       </c>
       <c r="O199">
-        <v>18113507959.0272</v>
+        <v>13160533333.33333</v>
       </c>
       <c r="P199">
         <v>0.168781923</v>
       </c>
       <c r="Q199">
-        <v>12032316432.10556</v>
+        <v>13259905780.23156</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -9634,19 +9685,19 @@
         </is>
       </c>
       <c r="T199">
-        <v>7666724865.822156</v>
+        <v>7747287441.269794</v>
       </c>
       <c r="U199">
-        <v>10723957571.42257</v>
+        <v>9968547564.975393</v>
       </c>
       <c r="V199">
-        <v>14.88382641491186</v>
+        <v>14.82161676785997</v>
       </c>
       <c r="W199">
-        <v>2.566789899814328</v>
+        <v>2.556061536739371</v>
       </c>
       <c r="X199">
-        <v>20.8189971294629</v>
+        <v>19.07119012432466</v>
       </c>
     </row>
     <row r="200">
@@ -9659,13 +9710,13 @@
         </is>
       </c>
       <c r="C200">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D200">
         <v>294759932.2976729</v>
       </c>
       <c r="E200">
-        <v>515104426.2476072</v>
+        <v>522701913.1994728</v>
       </c>
       <c r="F200">
         <v>6366.052985794636</v>
@@ -9681,7 +9732,7 @@
         </is>
       </c>
       <c r="I200">
-        <v>20748.12705755916</v>
+        <v>21620.68703748367</v>
       </c>
       <c r="J200">
         <v>0.1109890069686252</v>
@@ -9693,19 +9744,19 @@
         <v>4.244863935900098</v>
       </c>
       <c r="M200">
-        <v>4940139287.516437</v>
+        <v>5133457575.536861</v>
       </c>
       <c r="N200">
-        <v>483165770.8662169</v>
+        <v>496254303.9396106</v>
       </c>
       <c r="O200">
-        <v>18113507959.0272</v>
+        <v>13160533333.33333</v>
       </c>
       <c r="P200">
         <v>0.168781923</v>
       </c>
       <c r="Q200">
-        <v>12032316432.10556</v>
+        <v>13259905780.23156</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -9713,19 +9764,19 @@
         </is>
       </c>
       <c r="T200">
-        <v>5423311424.435639</v>
+        <v>5629718245.529458</v>
       </c>
       <c r="U200">
-        <v>8480544130.036055</v>
+        <v>7850978369.235058</v>
       </c>
       <c r="V200">
-        <v>10.52856692368761</v>
+        <v>10.7704182888289</v>
       </c>
       <c r="W200">
-        <v>1.815703736786734</v>
+        <v>1.857412207713204</v>
       </c>
       <c r="X200">
-        <v>16.46373763823865</v>
+        <v>15.01999164529359</v>
       </c>
     </row>
     <row r="201">
@@ -9738,13 +9789,13 @@
         </is>
       </c>
       <c r="C201">
-        <v>220344493.9499344</v>
+        <v>227941980.9018</v>
       </c>
       <c r="D201">
         <v>294759932.2976729</v>
       </c>
       <c r="E201">
-        <v>515104426.2476072</v>
+        <v>522701913.1994728</v>
       </c>
       <c r="F201">
         <v>6366.052985794636</v>
@@ -9760,7 +9811,7 @@
         </is>
       </c>
       <c r="I201">
-        <v>32874.99803262352</v>
+        <v>33295.4688696335</v>
       </c>
       <c r="J201">
         <v>0.1109890069686252</v>
@@ -9772,19 +9823,19 @@
         <v>4.244863935900098</v>
       </c>
       <c r="M201">
-        <v>6870769758.553014</v>
+        <v>6951332334.000652</v>
       </c>
       <c r="N201">
         <v>795948741.2161559</v>
       </c>
       <c r="O201">
-        <v>18113507959.0272</v>
+        <v>13160533333.33333</v>
       </c>
       <c r="P201">
         <v>0.168781923</v>
       </c>
       <c r="Q201">
-        <v>12032316432.10556</v>
+        <v>13259905780.23156</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -9792,19 +9843,19 @@
         </is>
       </c>
       <c r="T201">
-        <v>7666724865.822156</v>
+        <v>7747287441.269795</v>
       </c>
       <c r="U201">
-        <v>10723957571.42257</v>
+        <v>9968547564.975395</v>
       </c>
       <c r="V201">
-        <v>14.88382641491186</v>
+        <v>14.82161676785997</v>
       </c>
       <c r="W201">
-        <v>2.566789899814328</v>
+        <v>2.556061536739372</v>
       </c>
       <c r="X201">
-        <v>20.8189971294629</v>
+        <v>19.07119012432467</v>
       </c>
     </row>
     <row r="202">
@@ -9817,13 +9868,13 @@
         </is>
       </c>
       <c r="C202">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D202">
         <v>286774957.4114242</v>
       </c>
       <c r="E202">
-        <v>501881323.8202425</v>
+        <v>509518261.3682242</v>
       </c>
       <c r="F202">
         <v>8279.27429162431</v>
@@ -9839,7 +9890,7 @@
         </is>
       </c>
       <c r="I202">
-        <v>39144.19364856788</v>
+        <v>39646.76510550379</v>
       </c>
       <c r="J202">
         <v>0.1396807365395046</v>
@@ -9851,19 +9902,19 @@
         <v>5.12356540884357</v>
       </c>
       <c r="M202">
-        <v>7933281777.586254</v>
+        <v>8026302739.460074</v>
       </c>
       <c r="N202">
         <v>955669373.8695457</v>
       </c>
       <c r="O202">
-        <v>26515530607.20166</v>
+        <v>16499742930.59126</v>
       </c>
       <c r="P202">
         <v>0.168907292</v>
       </c>
       <c r="Q202">
-        <v>20741025320.36548</v>
+        <v>23078372844.76035</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
@@ -9871,19 +9922,19 @@
         </is>
       </c>
       <c r="T202">
-        <v>8888959430.730091</v>
+        <v>8981980392.603912</v>
       </c>
       <c r="U202">
-        <v>13367625901.53564</v>
+        <v>11768907289.70623</v>
       </c>
       <c r="V202">
-        <v>17.71127756472131</v>
+        <v>17.62837777096416</v>
       </c>
       <c r="W202">
-        <v>3.054397914798845</v>
+        <v>3.040101433008428</v>
       </c>
       <c r="X202">
-        <v>26.63503355690416</v>
+        <v>23.09810694145257</v>
       </c>
     </row>
     <row r="203">
@@ -9896,13 +9947,13 @@
         </is>
       </c>
       <c r="C203">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D203">
         <v>286774957.4114242</v>
       </c>
       <c r="E203">
-        <v>501881323.8202425</v>
+        <v>509518261.3682242</v>
       </c>
       <c r="F203">
         <v>8279.27429162431</v>
@@ -9918,7 +9969,7 @@
         </is>
       </c>
       <c r="I203">
-        <v>24605.21978500447</v>
+        <v>25584.6989062763</v>
       </c>
       <c r="J203">
         <v>0.1396807365395046</v>
@@ -9930,19 +9981,19 @@
         <v>5.12356540884357</v>
       </c>
       <c r="M203">
-        <v>5660631821.133004</v>
+        <v>5869442371.564708</v>
       </c>
       <c r="N203">
-        <v>552963079.218501</v>
+        <v>566715919.8599739</v>
       </c>
       <c r="O203">
-        <v>26515530607.20166</v>
+        <v>16499742930.59126</v>
       </c>
       <c r="P203">
         <v>0.168907292</v>
       </c>
       <c r="Q203">
-        <v>20741025320.36548</v>
+        <v>23078372844.76035</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -9950,19 +10001,19 @@
         </is>
       </c>
       <c r="T203">
-        <v>6213603179.625797</v>
+        <v>6436166570.698974</v>
       </c>
       <c r="U203">
-        <v>10692269650.43135</v>
+        <v>9223093467.801287</v>
       </c>
       <c r="V203">
-        <v>12.38062243944209</v>
+        <v>12.63186633078812</v>
       </c>
       <c r="W203">
-        <v>2.13509992290264</v>
+        <v>2.178428181693064</v>
       </c>
       <c r="X203">
-        <v>21.30437843162494</v>
+        <v>18.10159550127653</v>
       </c>
     </row>
     <row r="204">
@@ -9975,13 +10026,13 @@
         </is>
       </c>
       <c r="C204">
-        <v>215106366.4088183</v>
+        <v>222743303.9568</v>
       </c>
       <c r="D204">
         <v>286774957.4114242</v>
       </c>
       <c r="E204">
-        <v>501881323.8202425</v>
+        <v>509518261.3682242</v>
       </c>
       <c r="F204">
         <v>8279.27429162431</v>
@@ -9997,7 +10048,7 @@
         </is>
       </c>
       <c r="I204">
-        <v>39144.19364856788</v>
+        <v>39646.76510550379</v>
       </c>
       <c r="J204">
         <v>0.1396807365395046</v>
@@ -10009,19 +10060,19 @@
         <v>5.12356540884357</v>
       </c>
       <c r="M204">
-        <v>7933281777.586254</v>
+        <v>8026302739.460073</v>
       </c>
       <c r="N204">
         <v>955669373.8695457</v>
       </c>
       <c r="O204">
-        <v>26515530607.20166</v>
+        <v>16499742930.59126</v>
       </c>
       <c r="P204">
         <v>0.168907292</v>
       </c>
       <c r="Q204">
-        <v>20741025320.36548</v>
+        <v>23078372844.76035</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -10029,19 +10080,19 @@
         </is>
       </c>
       <c r="T204">
-        <v>8888959430.730091</v>
+        <v>8981980392.60391</v>
       </c>
       <c r="U204">
-        <v>13367625901.53564</v>
+        <v>11768907289.70622</v>
       </c>
       <c r="V204">
-        <v>17.71127756472131</v>
+        <v>17.62837777096416</v>
       </c>
       <c r="W204">
-        <v>3.054397914798845</v>
+        <v>3.040101433008427</v>
       </c>
       <c r="X204">
-        <v>26.63503355690416</v>
+        <v>23.09810694145257</v>
       </c>
     </row>
     <row r="205">
@@ -10054,13 +10105,13 @@
         </is>
       </c>
       <c r="C205">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D205">
         <v>277156271.055447</v>
       </c>
       <c r="E205">
-        <v>479158713.2502235</v>
+        <v>486771900.7096471</v>
       </c>
       <c r="F205">
         <v>10661.1264634248</v>
@@ -10076,7 +10127,7 @@
         </is>
       </c>
       <c r="I205">
-        <v>42433.03518113507</v>
+        <v>42990.23592140811</v>
       </c>
       <c r="J205">
         <v>0.172996874682735</v>
@@ -10088,19 +10139,19 @@
         <v>5.630166150527582</v>
       </c>
       <c r="M205">
-        <v>9874015169.379849</v>
+        <v>9989792021.174954</v>
       </c>
       <c r="N205">
         <v>1237898863.032783</v>
       </c>
       <c r="O205">
-        <v>28650551475.9329</v>
+        <v>20109245742.09246</v>
       </c>
       <c r="P205">
         <v>0.165799322</v>
       </c>
       <c r="Q205">
-        <v>29034780350.44719</v>
+        <v>31380835747.74694</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -10108,19 +10159,19 @@
         </is>
       </c>
       <c r="T205">
-        <v>11111924693.5391</v>
+        <v>11227701545.3342</v>
       </c>
       <c r="U205">
-        <v>15862166703.17487</v>
+        <v>14561800855.30452</v>
       </c>
       <c r="V205">
-        <v>23.19048863405785</v>
+        <v>23.0656320320991</v>
       </c>
       <c r="W205">
-        <v>3.99931511818906</v>
+        <v>3.977782976124316</v>
       </c>
       <c r="X205">
-        <v>33.10420172802205</v>
+        <v>29.9150399480237</v>
       </c>
     </row>
     <row r="206">
@@ -10133,13 +10184,13 @@
         </is>
       </c>
       <c r="C206">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D206">
         <v>277156271.055447</v>
       </c>
       <c r="E206">
-        <v>479158713.2502235</v>
+        <v>486771900.7096471</v>
       </c>
       <c r="F206">
         <v>10661.1264634248</v>
@@ -10155,7 +10206,7 @@
         </is>
       </c>
       <c r="I206">
-        <v>25718.06268882412</v>
+        <v>26817.60496076505</v>
       </c>
       <c r="J206">
         <v>0.172996874682735</v>
@@ -10167,19 +10218,19 @@
         <v>5.630166150527582</v>
       </c>
       <c r="M206">
-        <v>6770195366.224372</v>
+        <v>7037873892.023612</v>
       </c>
       <c r="N206">
-        <v>601023752.7977344</v>
+        <v>617545922.8372488</v>
       </c>
       <c r="O206">
-        <v>28650551475.9329</v>
+        <v>20109245742.09246</v>
       </c>
       <c r="P206">
         <v>0.165799322</v>
       </c>
       <c r="Q206">
-        <v>29034780350.44719</v>
+        <v>31380835747.74694</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -10187,19 +10238,19 @@
         </is>
       </c>
       <c r="T206">
-        <v>7371229780.14857</v>
+        <v>7655430475.987325</v>
       </c>
       <c r="U206">
-        <v>12121471789.78434</v>
+        <v>10989529785.95764</v>
       </c>
       <c r="V206">
-        <v>15.38369140811013</v>
+        <v>15.72693589097224</v>
       </c>
       <c r="W206">
-        <v>2.652994104300791</v>
+        <v>2.712188322724003</v>
       </c>
       <c r="X206">
-        <v>25.29740450207432</v>
+        <v>22.57634380689684</v>
       </c>
     </row>
     <row r="207">
@@ -10212,13 +10263,13 @@
         </is>
       </c>
       <c r="C207">
-        <v>202002442.1947765</v>
+        <v>209615629.6542</v>
       </c>
       <c r="D207">
         <v>277156271.055447</v>
       </c>
       <c r="E207">
-        <v>479158713.2502235</v>
+        <v>486771900.7096471</v>
       </c>
       <c r="F207">
         <v>10661.1264634248</v>
@@ -10234,7 +10285,7 @@
         </is>
       </c>
       <c r="I207">
-        <v>42433.03518113507</v>
+        <v>42990.23592140811</v>
       </c>
       <c r="J207">
         <v>0.172996874682735</v>
@@ -10246,19 +10297,19 @@
         <v>5.630166150527582</v>
       </c>
       <c r="M207">
-        <v>9874015169.379849</v>
+        <v>9989792021.174954</v>
       </c>
       <c r="N207">
         <v>1237898863.032783</v>
       </c>
       <c r="O207">
-        <v>28650551475.9329</v>
+        <v>20109245742.09246</v>
       </c>
       <c r="P207">
         <v>0.165799322</v>
       </c>
       <c r="Q207">
-        <v>29034780350.44719</v>
+        <v>31380835747.74694</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -10266,19 +10317,19 @@
         </is>
       </c>
       <c r="T207">
-        <v>11111924693.5391</v>
+        <v>11227701545.3342</v>
       </c>
       <c r="U207">
-        <v>15862166703.17487</v>
+        <v>14561800855.30452</v>
       </c>
       <c r="V207">
-        <v>23.19048863405785</v>
+        <v>23.0656320320991</v>
       </c>
       <c r="W207">
-        <v>3.99931511818906</v>
+        <v>3.977782976124316</v>
       </c>
       <c r="X207">
-        <v>33.10420172802205</v>
+        <v>29.9150399480237</v>
       </c>
     </row>
     <row r="208">
@@ -10291,13 +10342,13 @@
         </is>
       </c>
       <c r="C208">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D208">
         <v>268610051.7463273</v>
       </c>
       <c r="E208">
-        <v>469686155.2989103</v>
+        <v>477050998.3525273</v>
       </c>
       <c r="F208">
         <v>15461.46476406837</v>
@@ -10313,7 +10364,7 @@
         </is>
       </c>
       <c r="I208">
-        <v>49786.71287917303</v>
+        <v>50445.07539930211</v>
       </c>
       <c r="J208">
         <v>0.2138958172700075</v>
@@ -10325,19 +10376,19 @@
         <v>6.858431860994514</v>
       </c>
       <c r="M208">
-        <v>11060271026.18857</v>
+        <v>11189957211.33681</v>
       </c>
       <c r="N208">
         <v>1397392911.828287</v>
       </c>
       <c r="O208">
-        <v>29855423313.53576</v>
+        <v>26328942869.6995</v>
       </c>
       <c r="P208">
         <v>0.156365551</v>
       </c>
       <c r="Q208">
-        <v>35790078449.26033</v>
+        <v>37355346057.79388</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -10345,19 +10396,19 @@
         </is>
       </c>
       <c r="T208">
-        <v>12457679399.48162</v>
+        <v>12587365584.62986</v>
       </c>
       <c r="U208">
-        <v>17126039116.24088</v>
+        <v>16704305243.69794</v>
       </c>
       <c r="V208">
-        <v>26.52341198252586</v>
+        <v>26.38578606501133</v>
       </c>
       <c r="W208">
-        <v>4.574094328132815</v>
+        <v>4.550360054083834</v>
       </c>
       <c r="X208">
-        <v>36.46272925660711</v>
+        <v>35.01576414552208</v>
       </c>
     </row>
     <row r="209">
@@ -10370,13 +10421,13 @@
         </is>
       </c>
       <c r="C209">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D209">
         <v>268610051.7463273</v>
       </c>
       <c r="E209">
-        <v>469686155.2989103</v>
+        <v>477050998.3525273</v>
       </c>
       <c r="F209">
         <v>15461.46476406837</v>
@@ -10392,7 +10443,7 @@
         </is>
       </c>
       <c r="I209">
-        <v>30127.12590206288</v>
+        <v>31468.34620885809</v>
       </c>
       <c r="J209">
         <v>0.2138958172700075</v>
@@ -10404,19 +10455,19 @@
         <v>6.858431860994514</v>
       </c>
       <c r="M209">
-        <v>7565235721.772554</v>
+        <v>7876945234.499039</v>
       </c>
       <c r="N209">
-        <v>654322407.2787073</v>
+        <v>673386643.2255745</v>
       </c>
       <c r="O209">
-        <v>29855423313.53576</v>
+        <v>26328942869.6995</v>
       </c>
       <c r="P209">
         <v>0.156365551</v>
       </c>
       <c r="Q209">
-        <v>35790078449.26033</v>
+        <v>37355346057.79388</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
@@ -10424,19 +10475,19 @@
         </is>
       </c>
       <c r="T209">
-        <v>8219573590.516026</v>
+        <v>8550347339.189377</v>
       </c>
       <c r="U209">
-        <v>12887933307.27529</v>
+        <v>12667286998.25746</v>
       </c>
       <c r="V209">
-        <v>17.50014024851351</v>
+        <v>17.92334020622028</v>
       </c>
       <c r="W209">
-        <v>3.017986234387609</v>
+        <v>3.090969172159262</v>
       </c>
       <c r="X209">
-        <v>27.43945752259475</v>
+        <v>26.55331828673103</v>
       </c>
     </row>
     <row r="210">
@@ -10449,13 +10500,13 @@
         </is>
       </c>
       <c r="C210">
-        <v>201076103.5525829</v>
+        <v>208440946.6062</v>
       </c>
       <c r="D210">
         <v>268610051.7463273</v>
       </c>
       <c r="E210">
-        <v>469686155.2989103</v>
+        <v>477050998.3525273</v>
       </c>
       <c r="F210">
         <v>15461.46476406837</v>
@@ -10471,7 +10522,7 @@
         </is>
       </c>
       <c r="I210">
-        <v>49786.71287917303</v>
+        <v>50445.07539930211</v>
       </c>
       <c r="J210">
         <v>0.2138958172700075</v>
@@ -10483,19 +10534,19 @@
         <v>6.858431860994514</v>
       </c>
       <c r="M210">
-        <v>11060271026.18857</v>
+        <v>11189957211.33681</v>
       </c>
       <c r="N210">
         <v>1397392911.828287</v>
       </c>
       <c r="O210">
-        <v>29855423313.53576</v>
+        <v>26328942869.6995</v>
       </c>
       <c r="P210">
         <v>0.156365551</v>
       </c>
       <c r="Q210">
-        <v>35790078449.26033</v>
+        <v>37355346057.79388</v>
       </c>
       <c r="S210" t="inlineStr">
         <is>
@@ -10503,19 +10554,19 @@
         </is>
       </c>
       <c r="T210">
-        <v>12457679399.48162</v>
+        <v>12587365584.62986</v>
       </c>
       <c r="U210">
-        <v>17126039116.24088</v>
+        <v>16704305243.69794</v>
       </c>
       <c r="V210">
-        <v>26.52341198252586</v>
+        <v>26.38578606501133</v>
       </c>
       <c r="W210">
-        <v>4.574094328132815</v>
+        <v>4.550360054083834</v>
       </c>
       <c r="X210">
-        <v>36.46272925660711</v>
+        <v>35.01576414552208</v>
       </c>
     </row>
     <row r="211">
@@ -10528,13 +10579,13 @@
         </is>
       </c>
       <c r="C211">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D211">
         <v>253905905.3810591</v>
       </c>
       <c r="E211">
-        <v>450983805.0582955</v>
+        <v>458079675.5528591</v>
       </c>
       <c r="F211">
         <v>25413.00179900282</v>
@@ -10550,7 +10601,7 @@
         </is>
       </c>
       <c r="I211">
-        <v>58729.09448846203</v>
+        <v>59514.16101402248</v>
       </c>
       <c r="J211">
         <v>0.2693068600576771</v>
@@ -10562,19 +10613,19 @@
         <v>8.251678849716484</v>
       </c>
       <c r="M211">
-        <v>11913229408.34839</v>
+        <v>12052916878.13157</v>
       </c>
       <c r="N211">
         <v>1498217063.825136</v>
       </c>
       <c r="O211">
-        <v>37773858204.64944</v>
+        <v>35885428051.00182</v>
       </c>
       <c r="P211">
         <v>0.153400732</v>
       </c>
       <c r="Q211">
-        <v>25743331717.50409</v>
+        <v>25977166401.3354</v>
       </c>
       <c r="S211" t="inlineStr">
         <is>
@@ -10582,19 +10633,19 @@
         </is>
       </c>
       <c r="T211">
-        <v>13411471885.17532</v>
+        <v>13551159354.95851</v>
       </c>
       <c r="U211">
-        <v>19206009384.23275</v>
+        <v>19056010286.11552</v>
       </c>
       <c r="V211">
-        <v>29.73825608536368</v>
+        <v>29.58253788187292</v>
       </c>
       <c r="W211">
-        <v>5.128510184822355</v>
+        <v>5.101655806062813</v>
       </c>
       <c r="X211">
-        <v>42.58691591320032</v>
+        <v>41.59977249179787</v>
       </c>
     </row>
     <row r="212">
@@ -10607,13 +10658,13 @@
         </is>
       </c>
       <c r="C212">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D212">
         <v>253905905.3810591</v>
       </c>
       <c r="E212">
-        <v>450983805.0582955</v>
+        <v>458079675.5528591</v>
       </c>
       <c r="F212">
         <v>25413.00179900282</v>
@@ -10629,7 +10680,7 @@
         </is>
       </c>
       <c r="I212">
-        <v>32806.38030889265</v>
+        <v>34298.73541218192</v>
       </c>
       <c r="J212">
         <v>0.2693068600576771</v>
@@ -10641,19 +10692,19 @@
         <v>8.251678849716484</v>
       </c>
       <c r="M212">
-        <v>7528572604.008718</v>
+        <v>7844703326.271442</v>
       </c>
       <c r="N212">
-        <v>623011580.2353536</v>
+        <v>641648736.6559546</v>
       </c>
       <c r="O212">
-        <v>37773858204.64944</v>
+        <v>35885428051.00182</v>
       </c>
       <c r="P212">
         <v>0.153400732</v>
       </c>
       <c r="Q212">
-        <v>25743331717.50409</v>
+        <v>25977166401.3354</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
@@ -10661,19 +10712,19 @@
         </is>
       </c>
       <c r="T212">
-        <v>8151609597.24587</v>
+        <v>8486377475.929195</v>
       </c>
       <c r="U212">
-        <v>13946147096.3033</v>
+        <v>13991228407.08621</v>
       </c>
       <c r="V212">
-        <v>18.07517144921017</v>
+        <v>18.52598560651471</v>
       </c>
       <c r="W212">
-        <v>3.117153225246059</v>
+        <v>3.194898369095846</v>
       </c>
       <c r="X212">
-        <v>30.92383127704681</v>
+        <v>30.54322021643967</v>
       </c>
     </row>
     <row r="213">
@@ -10686,13 +10737,13 @@
         </is>
       </c>
       <c r="C213">
-        <v>197077899.6772364</v>
+        <v>204173770.1718</v>
       </c>
       <c r="D213">
         <v>253905905.3810591</v>
       </c>
       <c r="E213">
-        <v>450983805.0582955</v>
+        <v>458079675.5528591</v>
       </c>
       <c r="F213">
         <v>25413.00179900282</v>
@@ -10708,7 +10759,7 @@
         </is>
       </c>
       <c r="I213">
-        <v>58729.09448846203</v>
+        <v>59514.16101402248</v>
       </c>
       <c r="J213">
         <v>0.2693068600576771</v>
@@ -10720,19 +10771,19 @@
         <v>8.251678849716484</v>
       </c>
       <c r="M213">
-        <v>11006670050.08599</v>
+        <v>12052916878.13157</v>
       </c>
       <c r="N213">
         <v>1498217063.825136</v>
       </c>
       <c r="O213">
-        <v>37773858204.64944</v>
+        <v>35885428051.00182</v>
       </c>
       <c r="P213">
         <v>0.153400732</v>
       </c>
       <c r="Q213">
-        <v>25743331717.50409</v>
+        <v>25977166401.3354</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
@@ -10740,19 +10791,19 @@
         </is>
       </c>
       <c r="T213">
-        <v>12504912526.91292</v>
+        <v>13551159354.95851</v>
       </c>
       <c r="U213">
-        <v>18299450025.97035</v>
+        <v>19056010286.11552</v>
       </c>
       <c r="V213">
-        <v>27.72807446000528</v>
+        <v>29.58253788187292</v>
       </c>
       <c r="W213">
-        <v>4.781844364560379</v>
+        <v>5.101655806062813</v>
       </c>
       <c r="X213">
-        <v>40.57673428784192</v>
+        <v>41.59977249179787</v>
       </c>
     </row>
     <row r="214">
@@ -10765,13 +10816,13 @@
         </is>
       </c>
       <c r="C214">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D214">
         <v>252540644.3352594</v>
       </c>
       <c r="E214">
-        <v>446767628.753135</v>
+        <v>453687140.0568594</v>
       </c>
       <c r="F214">
         <v>36203.76603294804</v>
@@ -10787,7 +10838,7 @@
         </is>
       </c>
       <c r="I214">
-        <v>111168.5698598768</v>
+        <v>112607.9808018498</v>
       </c>
       <c r="J214">
         <v>0.384262651040995</v>
@@ -10799,19 +10850,19 @@
         <v>11.53661832529044</v>
       </c>
       <c r="M214">
-        <v>10068067898.35798</v>
+        <v>10186120097.48221</v>
       </c>
       <c r="N214">
         <v>1426882514.568928</v>
       </c>
       <c r="O214">
-        <v>43127044474.66385</v>
+        <v>34549337732.03999</v>
       </c>
       <c r="P214">
         <v>0.158603639</v>
       </c>
       <c r="Q214">
-        <v>22133824821.53867</v>
+        <v>23523686727.10347</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -10819,19 +10870,19 @@
         </is>
       </c>
       <c r="T214">
-        <v>11494986616.69294</v>
+        <v>11613038815.81717</v>
       </c>
       <c r="U214">
-        <v>18335092809.68947</v>
+        <v>17092689505.15872</v>
       </c>
       <c r="V214">
-        <v>25.72922897026765</v>
+        <v>25.59702003976075</v>
       </c>
       <c r="W214">
-        <v>4.437133517273979</v>
+        <v>4.414333429579433</v>
       </c>
       <c r="X214">
-        <v>41.0394389156173</v>
+        <v>37.67505841804671</v>
       </c>
     </row>
     <row r="215">
@@ -10844,13 +10895,13 @@
         </is>
       </c>
       <c r="C215">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D215">
         <v>252540644.3352594</v>
       </c>
       <c r="E215">
-        <v>446767628.753135</v>
+        <v>453687140.0568594</v>
       </c>
       <c r="F215">
         <v>36203.76603294804</v>
@@ -10866,7 +10917,7 @@
         </is>
       </c>
       <c r="I215">
-        <v>63031.31693380864</v>
+        <v>65771.11261308831</v>
       </c>
       <c r="J215">
         <v>0.384262651040995</v>
@@ -10878,19 +10929,19 @@
         <v>11.53661832529044</v>
       </c>
       <c r="M215">
-        <v>6376986988.757295</v>
+        <v>6636211534.399204</v>
       </c>
       <c r="N215">
-        <v>652158947.8473448</v>
+        <v>670803764.0829492</v>
       </c>
       <c r="O215">
-        <v>43127044474.66385</v>
+        <v>34549337732.03999</v>
       </c>
       <c r="P215">
         <v>0.158603639</v>
       </c>
       <c r="Q215">
-        <v>22133824821.53867</v>
+        <v>23523686727.10347</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
@@ -10898,19 +10949,19 @@
         </is>
       </c>
       <c r="T215">
-        <v>7029182140.370672</v>
+        <v>7307051502.248186</v>
       </c>
       <c r="U215">
-        <v>13869288333.3672</v>
+        <v>12786702191.58973</v>
       </c>
       <c r="V215">
-        <v>15.73341864536632</v>
+        <v>16.10592599413863</v>
       </c>
       <c r="W215">
-        <v>2.713306305965531</v>
+        <v>2.777547051173191</v>
       </c>
       <c r="X215">
-        <v>31.04362859071598</v>
+        <v>28.1839643724246</v>
       </c>
     </row>
     <row r="216">
@@ -10923,13 +10974,13 @@
         </is>
       </c>
       <c r="C216">
-        <v>194226984.4178757</v>
+        <v>201146495.7216</v>
       </c>
       <c r="D216">
         <v>252540644.3352594</v>
       </c>
       <c r="E216">
-        <v>446767628.753135</v>
+        <v>453687140.0568594</v>
       </c>
       <c r="F216">
         <v>36203.76603294804</v>
@@ -10945,7 +10996,7 @@
         </is>
       </c>
       <c r="I216">
-        <v>111168.5698598768</v>
+        <v>112607.9808018498</v>
       </c>
       <c r="J216">
         <v>0.384262651040995</v>
@@ -10957,19 +11008,19 @@
         <v>11.53661832529044</v>
       </c>
       <c r="M216">
-        <v>9323067650.509129</v>
+        <v>10186120097.48221</v>
       </c>
       <c r="N216">
         <v>1426882514.568928</v>
       </c>
       <c r="O216">
-        <v>43127044474.66385</v>
+        <v>34549337732.03999</v>
       </c>
       <c r="P216">
         <v>0.158603639</v>
       </c>
       <c r="Q216">
-        <v>22133824821.53867</v>
+        <v>23523686727.10347</v>
       </c>
       <c r="S216" t="inlineStr">
         <is>
@@ -10977,19 +11028,19 @@
         </is>
       </c>
       <c r="T216">
-        <v>10749986368.84409</v>
+        <v>11613038815.81717</v>
       </c>
       <c r="U216">
-        <v>17590092561.84062</v>
+        <v>17092689505.15872</v>
       </c>
       <c r="V216">
-        <v>24.0616948878901</v>
+        <v>25.59702003976075</v>
       </c>
       <c r="W216">
-        <v>4.149558970183414</v>
+        <v>4.414333429579433</v>
       </c>
       <c r="X216">
-        <v>39.37190483323975</v>
+        <v>37.67505841804671</v>
       </c>
     </row>
     <row r="217">
@@ -11002,13 +11053,13 @@
         </is>
       </c>
       <c r="C217">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D217">
         <v>261194298.4285408</v>
       </c>
       <c r="E217">
-        <v>455534133.8348246</v>
+        <v>462299665.1479408</v>
       </c>
       <c r="F217">
         <v>54020.71580722831</v>
@@ -11024,7 +11075,7 @@
         </is>
       </c>
       <c r="I217">
-        <v>119990.3175840915</v>
+        <v>121581.9930319054</v>
       </c>
       <c r="J217">
         <v>0.4863540617691473</v>
@@ -11036,19 +11087,19 @@
         <v>15.59633044837531</v>
       </c>
       <c r="M217">
-        <v>9435303888.886358</v>
+        <v>9545936672.130703</v>
       </c>
       <c r="N217">
         <v>1670788496.115743</v>
       </c>
       <c r="O217">
-        <v>45252319265.27862</v>
+        <v>44410243054.08272</v>
       </c>
       <c r="P217">
         <v>0.152714321</v>
       </c>
       <c r="Q217">
-        <v>4189980349.705075</v>
+        <v>3589897195.637428</v>
       </c>
       <c r="S217" t="inlineStr">
         <is>
@@ -11056,19 +11107,19 @@
         </is>
       </c>
       <c r="T217">
-        <v>11106146405.71791</v>
+        <v>11216779188.96225</v>
       </c>
       <c r="U217">
-        <v>18016823615.99015</v>
+        <v>17998859302.41146</v>
       </c>
       <c r="V217">
-        <v>24.38049221959066</v>
+        <v>24.26300522059164</v>
       </c>
       <c r="W217">
-        <v>4.204537155784728</v>
+        <v>4.184275938407989</v>
       </c>
       <c r="X217">
-        <v>39.55098482811609</v>
+        <v>38.93331676251948</v>
       </c>
     </row>
     <row r="218">
@@ -11081,13 +11132,13 @@
         </is>
       </c>
       <c r="C218">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D218">
         <v>261194298.4285408</v>
       </c>
       <c r="E218">
-        <v>455534133.8348246</v>
+        <v>462299665.1479408</v>
       </c>
       <c r="F218">
         <v>54020.71580722831</v>
@@ -11103,7 +11154,7 @@
         </is>
       </c>
       <c r="I218">
-        <v>66563.12846312436</v>
+        <v>69492.79328440914</v>
       </c>
       <c r="J218">
         <v>0.4863540617691473</v>
@@ -11115,19 +11166,19 @@
         <v>15.59633044837531</v>
       </c>
       <c r="M218">
-        <v>5698702135.905875</v>
+        <v>5933586025.285694</v>
       </c>
       <c r="N218">
-        <v>588554825.8624102</v>
+        <v>605711130.203823</v>
       </c>
       <c r="O218">
-        <v>45252319265.27862</v>
+        <v>44410243054.08272</v>
       </c>
       <c r="P218">
         <v>0.152714321</v>
       </c>
       <c r="Q218">
-        <v>4189980349.705075</v>
+        <v>3589897195.637428</v>
       </c>
       <c r="S218" t="inlineStr">
         <is>
@@ -11135,19 +11186,19 @@
         </is>
       </c>
       <c r="T218">
-        <v>6287310982.484093</v>
+        <v>6539351176.205324</v>
       </c>
       <c r="U218">
-        <v>13197988192.75634</v>
+        <v>13321431289.65453</v>
       </c>
       <c r="V218">
-        <v>13.80206337021466</v>
+        <v>14.14526479077735</v>
       </c>
       <c r="W218">
-        <v>2.380234481891737</v>
+        <v>2.439421274007215</v>
       </c>
       <c r="X218">
-        <v>28.97255597874009</v>
+        <v>28.81557633270518</v>
       </c>
     </row>
     <row r="219">
@@ -11160,13 +11211,13 @@
         </is>
       </c>
       <c r="C219">
-        <v>194339835.4062838</v>
+        <v>201105366.7194</v>
       </c>
       <c r="D219">
         <v>261194298.4285408</v>
       </c>
       <c r="E219">
-        <v>455534133.8348246</v>
+        <v>462299665.1479408</v>
       </c>
       <c r="F219">
         <v>54020.71580722831</v>
@@ -11182,7 +11233,7 @@
         </is>
       </c>
       <c r="I219">
-        <v>119990.3175840915</v>
+        <v>121581.9930319054</v>
       </c>
       <c r="J219">
         <v>0.4863540617691473</v>
@@ -11194,19 +11245,19 @@
         <v>15.59633044837531</v>
       </c>
       <c r="M219">
-        <v>8331424484.136334</v>
+        <v>9545936672.130703</v>
       </c>
       <c r="N219">
         <v>1670788496.115743</v>
       </c>
       <c r="O219">
-        <v>45252319265.27862</v>
+        <v>44410243054.08272</v>
       </c>
       <c r="P219">
         <v>0.152714321</v>
       </c>
       <c r="Q219">
-        <v>4189980349.705075</v>
+        <v>3589897195.637428</v>
       </c>
       <c r="S219" t="inlineStr">
         <is>
@@ -11214,19 +11265,19 @@
         </is>
       </c>
       <c r="T219">
-        <v>10002267000.96788</v>
+        <v>11216779188.96225</v>
       </c>
       <c r="U219">
-        <v>16912944211.24013</v>
+        <v>17998859302.41146</v>
       </c>
       <c r="V219">
-        <v>21.95722835688682</v>
+        <v>24.26300522059164</v>
       </c>
       <c r="W219">
-        <v>3.78663324895459</v>
+        <v>4.184275938407989</v>
       </c>
       <c r="X219">
-        <v>37.12772096541225</v>
+        <v>38.93331676251948</v>
       </c>
     </row>
     <row r="220">
@@ -11239,13 +11290,13 @@
         </is>
       </c>
       <c r="C220">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D220">
         <v>273870612.9368523</v>
       </c>
       <c r="E220">
-        <v>460729385.3905129</v>
+        <v>452050762.3595363</v>
       </c>
       <c r="F220">
         <v>88690.97627182691</v>
@@ -11261,7 +11312,7 @@
         </is>
       </c>
       <c r="I220">
-        <v>171214.765982827</v>
+        <v>173450.5553495055</v>
       </c>
       <c r="J220">
         <v>0.6757814893778542</v>
@@ -11273,19 +11324,19 @@
         <v>22.21566503645213</v>
       </c>
       <c r="M220">
-        <v>8514610053.451003</v>
+        <v>8614447326.266682</v>
       </c>
       <c r="N220">
         <v>1317160392.875102</v>
       </c>
       <c r="O220">
-        <v>29208457923.67397</v>
+        <v>46528018456.06116</v>
       </c>
       <c r="P220">
         <v>0.157300074</v>
       </c>
       <c r="Q220">
-        <v>-1813738654.022893</v>
+        <v>-5422618355.410767</v>
       </c>
       <c r="S220" t="inlineStr">
         <is>
@@ -11293,19 +11344,19 @@
         </is>
       </c>
       <c r="T220">
-        <v>9831859137.302378</v>
+        <v>9931696410.118055</v>
       </c>
       <c r="U220">
-        <v>14426351730.12218</v>
+        <v>17250557156.32984</v>
       </c>
       <c r="V220">
-        <v>21.33977004520544</v>
+        <v>21.97031226820259</v>
       </c>
       <c r="W220">
-        <v>3.680149491767506</v>
+        <v>3.788889634542489</v>
       </c>
       <c r="X220">
-        <v>31.31198527286131</v>
+        <v>38.16066378538634</v>
       </c>
     </row>
     <row r="221">
@@ -11318,13 +11369,13 @@
         </is>
       </c>
       <c r="C221">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D221">
         <v>273870612.9368523</v>
       </c>
       <c r="E221">
-        <v>460729385.3905129</v>
+        <v>452050762.3595363</v>
       </c>
       <c r="F221">
         <v>88690.97627182691</v>
@@ -11340,7 +11391,7 @@
         </is>
       </c>
       <c r="I221">
-        <v>102157.4525108842</v>
+        <v>100386.7745851672</v>
       </c>
       <c r="J221">
         <v>0.6757814893778542</v>
@@ -11352,19 +11403,19 @@
         <v>22.21566503645213</v>
       </c>
       <c r="M221">
-        <v>5622295837.60356</v>
+        <v>5509999419.392072</v>
       </c>
       <c r="N221">
-        <v>578313091.7876366</v>
+        <v>560193707.9511195</v>
       </c>
       <c r="O221">
-        <v>29208457923.67397</v>
+        <v>46528018456.06116</v>
       </c>
       <c r="P221">
         <v>0.157300074</v>
       </c>
       <c r="Q221">
-        <v>-1813738654.022893</v>
+        <v>-5422618355.410767</v>
       </c>
       <c r="S221" t="inlineStr">
         <is>
@@ -11372,19 +11423,19 @@
         </is>
       </c>
       <c r="T221">
-        <v>6200697620.367469</v>
+        <v>6070281818.319463</v>
       </c>
       <c r="U221">
-        <v>10795190213.18727</v>
+        <v>13389142564.53125</v>
       </c>
       <c r="V221">
-        <v>13.4584374623984</v>
+        <v>13.42831894948005</v>
       </c>
       <c r="W221">
-        <v>2.320974484837914</v>
+        <v>2.315780397470784</v>
       </c>
       <c r="X221">
-        <v>23.43065269005427</v>
+        <v>29.61867046666379</v>
       </c>
     </row>
     <row r="222">
@@ -11397,13 +11448,13 @@
         </is>
       </c>
       <c r="C222">
-        <v>186858772.4536606</v>
+        <v>178180149.422684</v>
       </c>
       <c r="D222">
         <v>273870612.9368523</v>
       </c>
       <c r="E222">
-        <v>460729385.3905129</v>
+        <v>452050762.3595363</v>
       </c>
       <c r="F222">
         <v>88690.97627182691</v>
@@ -11419,7 +11470,7 @@
         </is>
       </c>
       <c r="I222">
-        <v>171214.765982827</v>
+        <v>173450.5553495055</v>
       </c>
       <c r="J222">
         <v>0.6757814893778542</v>
@@ -11431,19 +11482,19 @@
         <v>22.21566503645213</v>
       </c>
       <c r="M222">
-        <v>8219719522.333317</v>
+        <v>8614447326.26668</v>
       </c>
       <c r="N222">
         <v>1317160392.875102</v>
       </c>
       <c r="O222">
-        <v>29208457923.67397</v>
+        <v>46528018456.06116</v>
       </c>
       <c r="P222">
         <v>0.157300074</v>
       </c>
       <c r="Q222">
-        <v>-1813738654.022893</v>
+        <v>-5422618355.410767</v>
       </c>
       <c r="S222" t="inlineStr">
         <is>
@@ -11451,19 +11502,19 @@
         </is>
       </c>
       <c r="T222">
-        <v>9536968606.184691</v>
+        <v>9931696410.118053</v>
       </c>
       <c r="U222">
-        <v>14131461199.00449</v>
+        <v>17250557156.32984</v>
       </c>
       <c r="V222">
-        <v>20.69971855192432</v>
+        <v>21.97031226820259</v>
       </c>
       <c r="W222">
-        <v>3.569769428031405</v>
+        <v>3.788889634542489</v>
       </c>
       <c r="X222">
-        <v>30.67193377958019</v>
+        <v>38.16066378538634</v>
       </c>
     </row>
     <row r="223">
@@ -11476,13 +11527,13 @@
         </is>
       </c>
       <c r="C223">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D223">
         <v>271854558.0205516</v>
       </c>
       <c r="E223">
-        <v>446920312.5593668</v>
+        <v>438212068.9971514</v>
       </c>
       <c r="F223">
         <v>34428.32684545482</v>
@@ -11498,7 +11549,7 @@
         </is>
       </c>
       <c r="I223">
-        <v>197413.1929156997</v>
+        <v>200015.6659685266</v>
       </c>
       <c r="J223">
         <v>0.834016110429706</v>
@@ -11510,19 +11561,19 @@
         <v>24.49566034639551</v>
       </c>
       <c r="M223">
-        <v>8541763850.56564</v>
+        <v>8641919512.718407</v>
       </c>
       <c r="N223">
         <v>1482683678.585036</v>
       </c>
       <c r="O223">
-        <v>30017237102.77559</v>
+        <v>16126956978.85196</v>
       </c>
       <c r="P223">
         <v>0.157291505</v>
       </c>
       <c r="Q223">
-        <v>5411816228.925718</v>
+        <v>6270075312.004883</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
@@ -11530,19 +11581,19 @@
         </is>
       </c>
       <c r="T223">
-        <v>10024481957.47752</v>
+        <v>10124637619.63029</v>
       </c>
       <c r="U223">
-        <v>14745938357.31493</v>
+        <v>12661270953.90417</v>
       </c>
       <c r="V223">
-        <v>22.43013279049812</v>
+        <v>23.10442440072572</v>
       </c>
       <c r="W223">
-        <v>3.868187970834091</v>
+        <v>3.984472913053499</v>
       </c>
       <c r="X223">
-        <v>32.99455840990927</v>
+        <v>28.89302200845242</v>
       </c>
     </row>
     <row r="224">
@@ -11555,13 +11606,13 @@
         </is>
       </c>
       <c r="C224">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D224">
         <v>271854558.0205516</v>
       </c>
       <c r="E224">
-        <v>446920312.5593668</v>
+        <v>438212068.9971514</v>
       </c>
       <c r="F224">
         <v>34428.32684545482</v>
@@ -11577,7 +11628,7 @@
         </is>
       </c>
       <c r="I224">
-        <v>112974.0680561343</v>
+        <v>111124.2318646425</v>
       </c>
       <c r="J224">
         <v>0.834016110429706</v>
@@ -11589,19 +11640,19 @@
         <v>24.49566034639551</v>
       </c>
       <c r="M224">
-        <v>5341411436.70496</v>
+        <v>5240072234.924203</v>
       </c>
       <c r="N224">
-        <v>561348400.0083493</v>
+        <v>544315967.320333</v>
       </c>
       <c r="O224">
-        <v>30017237102.77559</v>
+        <v>16126956978.85196</v>
       </c>
       <c r="P224">
         <v>0.157291505</v>
       </c>
       <c r="Q224">
-        <v>5411816228.925718</v>
+        <v>6270075312.004883</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
@@ -11609,19 +11660,19 @@
         </is>
       </c>
       <c r="T224">
-        <v>5902794265.040155</v>
+        <v>5784422630.571381</v>
       </c>
       <c r="U224">
-        <v>10624250664.87757</v>
+        <v>8321055964.845259</v>
       </c>
       <c r="V224">
-        <v>13.20771085842301</v>
+        <v>13.20005321580721</v>
       </c>
       <c r="W224">
-        <v>2.277735434827629</v>
+        <v>2.27641483626818</v>
       </c>
       <c r="X224">
-        <v>23.77213647783416</v>
+        <v>18.98865082353391</v>
       </c>
     </row>
     <row r="225">
@@ -11634,13 +11685,13 @@
         </is>
       </c>
       <c r="C225">
-        <v>175065754.5388151</v>
+        <v>166357510.9765998</v>
       </c>
       <c r="D225">
         <v>271854558.0205516</v>
       </c>
       <c r="E225">
-        <v>446920312.5593668</v>
+        <v>438212068.9971514</v>
       </c>
       <c r="F225">
         <v>34428.32684545482</v>
@@ -11656,7 +11707,7 @@
         </is>
       </c>
       <c r="I225">
-        <v>197413.1929156997</v>
+        <v>200015.6659685266</v>
       </c>
       <c r="J225">
         <v>0.834016110429706</v>
@@ -11668,19 +11719,19 @@
         <v>24.49566034639551</v>
       </c>
       <c r="M225">
-        <v>7809070374.676719</v>
+        <v>8641919512.718409</v>
       </c>
       <c r="N225">
         <v>1482683678.585036</v>
       </c>
       <c r="O225">
-        <v>30017237102.77559</v>
+        <v>16126956978.85196</v>
       </c>
       <c r="P225">
         <v>0.157291505</v>
       </c>
       <c r="Q225">
-        <v>5411816228.925718</v>
+        <v>6270075312.004883</v>
       </c>
       <c r="S225" t="inlineStr">
         <is>
@@ -11688,19 +11739,19 @@
         </is>
       </c>
       <c r="T225">
-        <v>9291788481.5886</v>
+        <v>10124637619.63029</v>
       </c>
       <c r="U225">
-        <v>14013244881.42601</v>
+        <v>12661270953.90417</v>
       </c>
       <c r="V225">
-        <v>20.79070523417824</v>
+        <v>23.10442440072572</v>
       </c>
       <c r="W225">
-        <v>3.585460533968583</v>
+        <v>3.984472913053501</v>
       </c>
       <c r="X225">
-        <v>31.35513085358938</v>
+        <v>28.89302200845242</v>
       </c>
     </row>
     <row r="226">
@@ -11713,13 +11764,13 @@
         </is>
       </c>
       <c r="C226">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D226">
         <v>286249120.1893484</v>
       </c>
       <c r="E226">
-        <v>464912237.2092207</v>
+        <v>455778084.7661767</v>
       </c>
       <c r="F226">
         <v>70010.96091192566</v>
@@ -11735,7 +11786,7 @@
         </is>
       </c>
       <c r="I226">
-        <v>379074.7228227983</v>
+        <v>383943.1366182506</v>
       </c>
       <c r="J226">
         <v>1</v>
@@ -11747,19 +11798,19 @@
         <v>35.13169686422393</v>
       </c>
       <c r="M226">
-        <v>6986134657.615289</v>
+        <v>7068049933.518816</v>
       </c>
       <c r="N226">
         <v>926342931.5469068</v>
       </c>
       <c r="O226">
-        <v>16488893474.11944</v>
+        <v>13916689564.10257</v>
       </c>
       <c r="P226">
         <v>0.157437741</v>
       </c>
       <c r="Q226">
-        <v>5707765942.968569</v>
+        <v>7243541701.807326</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
@@ -11767,19 +11818,19 @@
         </is>
       </c>
       <c r="T226">
-        <v>7912547600.123107</v>
+        <v>7994462876.026634</v>
       </c>
       <c r="U226">
-        <v>10508521740.27811</v>
+        <v>10185475043.19722</v>
       </c>
       <c r="V226">
-        <v>17.01944359998054</v>
+        <v>17.54025290647302</v>
       </c>
       <c r="W226">
-        <v>2.935087706285129</v>
+        <v>3.024903861779583</v>
       </c>
       <c r="X226">
-        <v>22.6032375558853</v>
+        <v>22.34744359949331</v>
       </c>
     </row>
     <row r="227">
@@ -11792,13 +11843,13 @@
         </is>
       </c>
       <c r="C227">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D227">
         <v>286249120.1893484</v>
       </c>
       <c r="E227">
-        <v>464912237.2092207</v>
+        <v>455778084.7661767</v>
       </c>
       <c r="F227">
         <v>70010.96091192566</v>
@@ -11814,7 +11865,7 @@
         </is>
       </c>
       <c r="I227">
-        <v>288028.4244873018</v>
+        <v>281727.417387308</v>
       </c>
       <c r="J227">
         <v>1</v>
@@ -11826,19 +11877,19 @@
         <v>35.13169686422393</v>
       </c>
       <c r="M227">
-        <v>5969963399.729935</v>
+        <v>5823713768.50736</v>
       </c>
       <c r="N227">
-        <v>616140936.8321786</v>
+        <v>594081134.0944527</v>
       </c>
       <c r="O227">
-        <v>16488893474.11944</v>
+        <v>13916689564.10257</v>
       </c>
       <c r="P227">
         <v>0.157437741</v>
       </c>
       <c r="Q227">
-        <v>5707765942.968569</v>
+        <v>7243541701.807326</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
@@ -11846,19 +11897,19 @@
         </is>
       </c>
       <c r="T227">
-        <v>6586174347.523025</v>
+        <v>6417864913.562724</v>
       </c>
       <c r="U227">
-        <v>9182148487.678032</v>
+        <v>8608877080.733307</v>
       </c>
       <c r="V227">
-        <v>14.16648954447526</v>
+        <v>14.08111782481867</v>
       </c>
       <c r="W227">
-        <v>2.443081588357781</v>
+        <v>2.428358810650245</v>
       </c>
       <c r="X227">
-        <v>19.75028350038001</v>
+        <v>18.88830851783897</v>
       </c>
     </row>
     <row r="228">
@@ -11871,13 +11922,13 @@
         </is>
       </c>
       <c r="C228">
-        <v>178663117.0198723</v>
+        <v>169528964.5768283</v>
       </c>
       <c r="D228">
         <v>286249120.1893484</v>
       </c>
       <c r="E228">
-        <v>464912237.2092207</v>
+        <v>455778084.7661767</v>
       </c>
       <c r="F228">
         <v>70010.96091192566</v>
@@ -11893,7 +11944,7 @@
         </is>
       </c>
       <c r="I228">
-        <v>379074.7228227983</v>
+        <v>383943.1366182506</v>
       </c>
       <c r="J228">
         <v>1</v>
@@ -11905,19 +11956,19 @@
         <v>35.13169686422393</v>
       </c>
       <c r="M228">
-        <v>8728004737.170086</v>
+        <v>7068049933.518814</v>
       </c>
       <c r="N228">
         <v>926342931.5469068</v>
       </c>
       <c r="O228">
-        <v>16488893474.11944</v>
+        <v>13916689564.10257</v>
       </c>
       <c r="P228">
         <v>0.157437741</v>
       </c>
       <c r="Q228">
-        <v>5707765942.968569</v>
+        <v>7243541701.807326</v>
       </c>
       <c r="S228" t="inlineStr">
         <is>
@@ -11925,19 +11976,19 @@
         </is>
       </c>
       <c r="T228">
-        <v>9654417679.677906</v>
+        <v>7994462876.026632</v>
       </c>
       <c r="U228">
-        <v>12250391819.83291</v>
+        <v>10185475043.19722</v>
       </c>
       <c r="V228">
-        <v>20.76610789518368</v>
+        <v>17.54025290647301</v>
       </c>
       <c r="W228">
-        <v>3.581218600507825</v>
+        <v>3.024903861779582</v>
       </c>
       <c r="X228">
-        <v>26.34990185108844</v>
+        <v>22.34744359949331</v>
       </c>
     </row>
     <row r="229">
@@ -11950,13 +12001,13 @@
         </is>
       </c>
       <c r="C229">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D229">
         <v>300427469.1354888</v>
       </c>
       <c r="E229">
-        <v>486082741.6645754</v>
+        <v>475579493.3596885</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11969,7 +12020,7 @@
         </is>
       </c>
       <c r="I229">
-        <v>552037.3420522627</v>
+        <v>559207.2937611094</v>
       </c>
       <c r="P229">
         <v>0.173618211</v>
@@ -11990,13 +12041,13 @@
         </is>
       </c>
       <c r="C230">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D230">
         <v>300427469.1354888</v>
       </c>
       <c r="E230">
-        <v>486082741.6645754</v>
+        <v>475579493.3596885</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -12027,13 +12078,13 @@
         </is>
       </c>
       <c r="C231">
-        <v>185655272.5290866</v>
+        <v>175152024.2241997</v>
       </c>
       <c r="D231">
         <v>300427469.1354888</v>
       </c>
       <c r="E231">
-        <v>486082741.6645754</v>
+        <v>475579493.3596885</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -12046,7 +12097,7 @@
         </is>
       </c>
       <c r="I231">
-        <v>552037.3420522627</v>
+        <v>559207.2937611094</v>
       </c>
       <c r="P231">
         <v>0.173618211</v>
@@ -12067,13 +12118,13 @@
         </is>
       </c>
       <c r="C232">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D232">
         <v>274527983.5634456</v>
       </c>
       <c r="E232">
-        <v>450355612.2076036</v>
+        <v>439107544.7391421</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -12104,13 +12155,13 @@
         </is>
       </c>
       <c r="C233">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D233">
         <v>274527983.5634456</v>
       </c>
       <c r="E233">
-        <v>450355612.2076036</v>
+        <v>439107544.7391421</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -12141,13 +12192,13 @@
         </is>
       </c>
       <c r="C234">
-        <v>175827628.644158</v>
+        <v>164579561.1756965</v>
       </c>
       <c r="D234">
         <v>274527983.5634456</v>
       </c>
       <c r="E234">
-        <v>450355612.2076036</v>
+        <v>439107544.7391421</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -12158,6 +12209,9 @@
         <is>
           <t>Empalme CCNN</t>
         </is>
+      </c>
+      <c r="I234">
+        <v>524535.9514872405</v>
       </c>
       <c r="P234">
         <v>0.157970348</v>
